--- a/result/vwap_opt_nsdq#1/Summary_vwap_opt_nsdq#1.xlsx
+++ b/result/vwap_opt_nsdq#1/Summary_vwap_opt_nsdq#1.xlsx
@@ -416,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,254 +471,254 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D2">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="F2">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M2">
-        <v>3147.899999999942</v>
+        <v>4501.200000000015</v>
       </c>
       <c r="N2">
-        <v>-1502.200000000011</v>
+        <v>-1463.500000000013</v>
       </c>
       <c r="O2">
-        <v>0.3347732181425486</v>
+        <v>0.3347521281922884</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D3">
+        <v>3.8</v>
+      </c>
+      <c r="E3">
         <v>3</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
       <c r="F3">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="G3">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M3">
-        <v>1246.099999999901</v>
+        <v>4254.199999999985</v>
       </c>
       <c r="N3">
-        <v>-2365.200000000063</v>
+        <v>-1503.400000000036</v>
       </c>
       <c r="O3">
-        <v>0.3559698180204172</v>
+        <v>0.3195614174479581</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D4">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="E4">
         <v>2.2</v>
       </c>
       <c r="F4">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G4">
         <v>400</v>
       </c>
       <c r="H4">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L4">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="M4">
-        <v>350.7000000000198</v>
+        <v>4247.500000000015</v>
       </c>
       <c r="N4">
-        <v>-53.59999999999854</v>
+        <v>-2838.900000000011</v>
       </c>
       <c r="O4">
-        <v>0.3761432926829268</v>
+        <v>0.2805659960203405</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5">
+        <v>58</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2.2</v>
+      </c>
+      <c r="F5">
+        <v>150</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>17</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>16</v>
       </c>
-      <c r="B5">
-        <v>30</v>
-      </c>
-      <c r="C5">
-        <v>100</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>1.2</v>
-      </c>
-      <c r="F5">
-        <v>400</v>
-      </c>
-      <c r="G5">
-        <v>400</v>
-      </c>
-      <c r="H5">
-        <v>140</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>14</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>20</v>
-      </c>
       <c r="M5">
-        <v>215.1999999999598</v>
+        <v>4180.499999999962</v>
       </c>
       <c r="N5">
-        <v>-3358.700000000045</v>
+        <v>-1091.500000000019</v>
       </c>
       <c r="O5">
-        <v>0.362526452873189</v>
+        <v>0.3593615185504745</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="B6">
         <v>10</v>
       </c>
       <c r="C6">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D6">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="F6">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="G6">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="H6">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M6">
-        <v>-29.69999999989159</v>
+        <v>4121.10000000005</v>
       </c>
       <c r="N6">
-        <v>-2324.499999999913</v>
+        <v>-1326.900000000004</v>
       </c>
       <c r="O6">
-        <v>0.3562283737024222</v>
+        <v>0.3096986089644513</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="E7">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="F7">
         <v>350</v>
@@ -727,98 +727,98 @@
         <v>300</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M7">
-        <v>-394.299999999942</v>
+        <v>3830.299999999974</v>
       </c>
       <c r="N7">
-        <v>-786.3999999999551</v>
+        <v>-835.6000000000331</v>
       </c>
       <c r="O7">
-        <v>0.3649836724441095</v>
+        <v>0.3145949195851496</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B8">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>100</v>
       </c>
       <c r="D8">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="G8">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="H8">
         <v>80</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M8">
-        <v>-416.2000000000007</v>
+        <v>3534.700000000062</v>
       </c>
       <c r="N8">
-        <v>-3439.80000000001</v>
+        <v>-1167.300000000011</v>
       </c>
       <c r="O8">
-        <v>0.342504080205176</v>
+        <v>0.302213666987488</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B9">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C9">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D9">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="E9">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G9">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="H9">
         <v>160</v>
@@ -827,133 +827,133 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K9">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="M9">
-        <v>-438.6999999998607</v>
+        <v>3147.899999999942</v>
       </c>
       <c r="N9">
-        <v>-699.2999999998956</v>
+        <v>-1502.200000000011</v>
       </c>
       <c r="O9">
-        <v>0.3117384843982169</v>
+        <v>0.3347732181425486</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B10">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C10">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="G10">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="H10">
         <v>40</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K10">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M10">
-        <v>-642.3999999999987</v>
+        <v>3081.399999999949</v>
       </c>
       <c r="N10">
-        <v>-2400.999999999977</v>
+        <v>-1267.000000000039</v>
       </c>
       <c r="O10">
-        <v>0.3531515422440769</v>
+        <v>0.3257665593765882</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="B11">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C11">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D11">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="E11">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G11">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H11">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K11">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M11">
-        <v>-822.4999999999827</v>
+        <v>2787.999999999955</v>
       </c>
       <c r="N11">
-        <v>-2431.399999999993</v>
+        <v>-1159.900000000031</v>
       </c>
       <c r="O11">
-        <v>0.3550745832114653</v>
+        <v>0.3178201471250563</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C12">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D12">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="F12">
         <v>250</v>
@@ -971,630 +971,6740 @@
         <v>17</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L12">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="M12">
-        <v>-879.2999999999602</v>
+        <v>2778.699999999949</v>
       </c>
       <c r="N12">
-        <v>-1840.399999999984</v>
+        <v>-732.100000000034</v>
       </c>
       <c r="O12">
-        <v>0.3577008928571428</v>
+        <v>0.3209411764705882</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C13">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D13">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="F13">
         <v>350</v>
       </c>
       <c r="G13">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H13">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K13">
         <v>30</v>
       </c>
       <c r="L13">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M13">
-        <v>-1161.699999999962</v>
+        <v>2757.999999999955</v>
       </c>
       <c r="N13">
-        <v>-1536.099999999985</v>
+        <v>-1293.100000000031</v>
       </c>
       <c r="O13">
-        <v>0.3506591337099811</v>
+        <v>0.3209876543209876</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C14">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="F14">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="G14">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H14">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K14">
         <v>30</v>
       </c>
       <c r="L14">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M14">
-        <v>-1207.199999999995</v>
+        <v>2598.100000000005</v>
       </c>
       <c r="N14">
-        <v>-1940.499999999991</v>
+        <v>-1410.700000000042</v>
       </c>
       <c r="O14">
-        <v>0.3588850174216028</v>
+        <v>0.314385326663635</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C15">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D15">
         <v>3.6</v>
       </c>
       <c r="E15">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="F15">
         <v>50</v>
       </c>
       <c r="G15">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="H15">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K15">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M15">
-        <v>-1653.499999999971</v>
+        <v>2457.50000000007</v>
       </c>
       <c r="N15">
-        <v>-2773.799999999979</v>
+        <v>-65.89999999999691</v>
       </c>
       <c r="O15">
-        <v>0.3437705998681608</v>
+        <v>0.3978988837820092</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16">
-        <v>8</v>
+        <v>139</v>
       </c>
       <c r="B16">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D16">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="E16">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="F16">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H16">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M16">
-        <v>-1911.099999999955</v>
+        <v>2288.100000000021</v>
       </c>
       <c r="N16">
-        <v>-2538.899999999956</v>
+        <v>-1277.800000000015</v>
       </c>
       <c r="O16">
-        <v>0.3564356435643564</v>
+        <v>0.3345597897503285</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17">
+        <v>79</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>40</v>
+      </c>
+      <c r="D17">
+        <v>1.8</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>250</v>
+      </c>
+      <c r="G17">
+        <v>50</v>
+      </c>
+      <c r="H17">
+        <v>140</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>11</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>20</v>
-      </c>
-      <c r="C17">
-        <v>100</v>
-      </c>
-      <c r="D17">
-        <v>4</v>
-      </c>
-      <c r="E17">
-        <v>1.2</v>
-      </c>
-      <c r="F17">
-        <v>50</v>
-      </c>
-      <c r="G17">
-        <v>100</v>
-      </c>
-      <c r="H17">
-        <v>120</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>16</v>
-      </c>
-      <c r="K17">
-        <v>30</v>
-      </c>
-      <c r="L17">
-        <v>12</v>
-      </c>
       <c r="M17">
-        <v>-2163.900000000012</v>
+        <v>2070.800000000053</v>
       </c>
       <c r="N17">
-        <v>-3241.800000000019</v>
+        <v>-1356.599999999998</v>
       </c>
       <c r="O17">
-        <v>0.3354694901086654</v>
+        <v>0.302252816020025</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="B18">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C18">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D18">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="G18">
         <v>300</v>
       </c>
-      <c r="G18">
-        <v>400</v>
-      </c>
       <c r="H18">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K18">
         <v>30</v>
       </c>
       <c r="L18">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M18">
-        <v>-2196.200000000022</v>
+        <v>2013.000000000005</v>
       </c>
       <c r="N18">
-        <v>-5389.600000000029</v>
+        <v>-1037.300000000037</v>
       </c>
       <c r="O18">
-        <v>0.3576051779935275</v>
+        <v>0.3124054462934947</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="B19">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>40</v>
+      </c>
+      <c r="D19">
+        <v>2.8</v>
+      </c>
+      <c r="E19">
+        <v>2.8</v>
+      </c>
+      <c r="F19">
+        <v>400</v>
+      </c>
+      <c r="G19">
+        <v>400</v>
+      </c>
+      <c r="H19">
         <v>20</v>
       </c>
-      <c r="C19">
-        <v>40</v>
-      </c>
-      <c r="D19">
-        <v>3.4</v>
-      </c>
-      <c r="E19">
-        <v>1.2</v>
-      </c>
-      <c r="F19">
-        <v>250</v>
-      </c>
-      <c r="G19">
-        <v>50</v>
-      </c>
-      <c r="H19">
-        <v>180</v>
-      </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>-2288.999999999965</v>
+        <v>1964.500000000014</v>
       </c>
       <c r="N19">
-        <v>-3000.299999999958</v>
+        <v>11.19999999999891</v>
       </c>
       <c r="O19">
-        <v>0.2904284727021423</v>
+        <v>0.4430379746835443</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="B20">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>100</v>
       </c>
       <c r="D20">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="E20">
         <v>1.8</v>
       </c>
       <c r="F20">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G20">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="H20">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K20">
         <v>30</v>
       </c>
       <c r="L20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M20">
-        <v>-2501.199999999988</v>
+        <v>1958.899999999986</v>
       </c>
       <c r="N20">
-        <v>-4411.299999999968</v>
+        <v>-1396.400000000041</v>
       </c>
       <c r="O20">
-        <v>0.3341854124062713</v>
+        <v>0.3179339594062405</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C21">
         <v>60</v>
       </c>
       <c r="D21">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="E21">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="G21">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H21">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
+        <v>15</v>
+      </c>
+      <c r="K21">
+        <v>30</v>
+      </c>
+      <c r="L21">
         <v>12</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>17</v>
-      </c>
       <c r="M21">
-        <v>-2899.999999999936</v>
+        <v>1861.100000000053</v>
       </c>
       <c r="N21">
-        <v>-3728.599999999949</v>
+        <v>-2153.200000000003</v>
       </c>
       <c r="O21">
-        <v>0.2794619554306364</v>
+        <v>0.3300600109110747</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C22">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D22">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="G22">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="H22">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L22">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M22">
-        <v>-2925.29999999994</v>
+        <v>1408.500000000015</v>
       </c>
       <c r="N22">
-        <v>-4517.599999999963</v>
+        <v>-3399.400000000003</v>
       </c>
       <c r="O22">
-        <v>0.2798041615667075</v>
+        <v>0.295524850484636</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B23">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C23">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D23">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="E23">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="G23">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="H23">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K23">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M23">
-        <v>-2958.999999999943</v>
+        <v>1246.099999999901</v>
       </c>
       <c r="N23">
-        <v>-4657.999999999959</v>
+        <v>-2365.200000000063</v>
       </c>
       <c r="O23">
-        <v>0.346848179934892</v>
+        <v>0.3559698180204172</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24">
+        <v>62</v>
+      </c>
+      <c r="B24">
+        <v>50</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+      <c r="D24">
+        <v>2.6</v>
+      </c>
+      <c r="E24">
+        <v>3.2</v>
+      </c>
+      <c r="F24">
+        <v>200</v>
+      </c>
+      <c r="G24">
+        <v>350</v>
+      </c>
+      <c r="H24">
+        <v>180</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
         <v>17</v>
       </c>
-      <c r="B24">
-        <v>30</v>
-      </c>
-      <c r="C24">
-        <v>40</v>
-      </c>
-      <c r="D24">
-        <v>3.4</v>
-      </c>
-      <c r="E24">
-        <v>2.6</v>
-      </c>
-      <c r="F24">
-        <v>400</v>
-      </c>
-      <c r="G24">
-        <v>200</v>
-      </c>
-      <c r="H24">
-        <v>20</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>16</v>
-      </c>
       <c r="K24">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M24">
-        <v>-3012.399999999989</v>
+        <v>1232.599999999914</v>
       </c>
       <c r="N24">
-        <v>-4337.599999999999</v>
+        <v>-2603.000000000063</v>
       </c>
       <c r="O24">
-        <v>0.3464295195115477</v>
+        <v>0.3546968268928684</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25">
+        <v>85</v>
+      </c>
+      <c r="B25">
+        <v>50</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+      <c r="D25">
+        <v>1.2</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>150</v>
+      </c>
+      <c r="G25">
+        <v>150</v>
+      </c>
+      <c r="H25">
+        <v>140</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>16</v>
+      </c>
+      <c r="K25">
+        <v>30</v>
+      </c>
+      <c r="L25">
+        <v>14</v>
+      </c>
+      <c r="M25">
+        <v>1138.999999999958</v>
+      </c>
+      <c r="N25">
+        <v>-2113.400000000025</v>
+      </c>
+      <c r="O25">
+        <v>0.3455284552845528</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26">
+        <v>92</v>
+      </c>
+      <c r="B26">
+        <v>40</v>
+      </c>
+      <c r="C26">
+        <v>40</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>1.4</v>
+      </c>
+      <c r="F26">
+        <v>100</v>
+      </c>
+      <c r="G26">
+        <v>300</v>
+      </c>
+      <c r="H26">
+        <v>40</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>12</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <v>1010.200000000013</v>
+      </c>
+      <c r="N26">
+        <v>-67.70000000000073</v>
+      </c>
+      <c r="O26">
+        <v>0.3917785234899329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27">
+        <v>93</v>
+      </c>
+      <c r="B27">
+        <v>50</v>
+      </c>
+      <c r="C27">
+        <v>80</v>
+      </c>
+      <c r="D27">
+        <v>3.4</v>
+      </c>
+      <c r="E27">
+        <v>2.2</v>
+      </c>
+      <c r="F27">
+        <v>250</v>
+      </c>
+      <c r="G27">
+        <v>50</v>
+      </c>
+      <c r="H27">
+        <v>180</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>12</v>
+      </c>
+      <c r="K27">
+        <v>30</v>
+      </c>
+      <c r="L27">
+        <v>16</v>
+      </c>
+      <c r="M27">
+        <v>930.9000000000133</v>
+      </c>
+      <c r="N27">
+        <v>-1737.500000000015</v>
+      </c>
+      <c r="O27">
+        <v>0.3590070019096117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28">
+        <v>140</v>
+      </c>
+      <c r="B28">
         <v>20</v>
       </c>
-      <c r="B25">
-        <v>50</v>
-      </c>
-      <c r="C25">
-        <v>40</v>
-      </c>
-      <c r="D25">
+      <c r="C28">
+        <v>100</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>2.8</v>
+      </c>
+      <c r="F28">
+        <v>150</v>
+      </c>
+      <c r="G28">
+        <v>150</v>
+      </c>
+      <c r="H28">
+        <v>20</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>15</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>18</v>
+      </c>
+      <c r="M28">
+        <v>879.1999999999834</v>
+      </c>
+      <c r="N28">
+        <v>-2828.900000000006</v>
+      </c>
+      <c r="O28">
+        <v>0.3094692630775105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29">
+        <v>146</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>80</v>
+      </c>
+      <c r="D29">
+        <v>2.2</v>
+      </c>
+      <c r="E29">
+        <v>2.6</v>
+      </c>
+      <c r="F29">
+        <v>100</v>
+      </c>
+      <c r="G29">
+        <v>150</v>
+      </c>
+      <c r="H29">
+        <v>200</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>9</v>
+      </c>
+      <c r="K29">
+        <v>30</v>
+      </c>
+      <c r="L29">
+        <v>5</v>
+      </c>
+      <c r="M29">
+        <v>871.3000000000311</v>
+      </c>
+      <c r="N29">
+        <v>-36.90000000000327</v>
+      </c>
+      <c r="O29">
+        <v>0.3928901200369345</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30">
+        <v>128</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>80</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>2.8</v>
+      </c>
+      <c r="F30">
+        <v>100</v>
+      </c>
+      <c r="G30">
+        <v>50</v>
+      </c>
+      <c r="H30">
+        <v>180</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>9</v>
+      </c>
+      <c r="K30">
+        <v>30</v>
+      </c>
+      <c r="L30">
+        <v>4</v>
+      </c>
+      <c r="M30">
+        <v>821.0999999999813</v>
+      </c>
+      <c r="N30">
+        <v>-13.39999999999964</v>
+      </c>
+      <c r="O30">
+        <v>0.4019812304483837</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31">
+        <v>57</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
         <v>2.4</v>
       </c>
-      <c r="E25">
+      <c r="F31">
+        <v>100</v>
+      </c>
+      <c r="G31">
+        <v>150</v>
+      </c>
+      <c r="H31">
+        <v>40</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>8</v>
+      </c>
+      <c r="K31">
+        <v>30</v>
+      </c>
+      <c r="L31">
+        <v>8</v>
+      </c>
+      <c r="M31">
+        <v>815.6000000000022</v>
+      </c>
+      <c r="N31">
+        <v>-69.70000000000437</v>
+      </c>
+      <c r="O31">
+        <v>0.3672504865165416</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32">
+        <v>74</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>80</v>
+      </c>
+      <c r="D32">
+        <v>2.8</v>
+      </c>
+      <c r="E32">
+        <v>1.8</v>
+      </c>
+      <c r="F32">
+        <v>50</v>
+      </c>
+      <c r="G32">
+        <v>50</v>
+      </c>
+      <c r="H32">
+        <v>140</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>10</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>7</v>
+      </c>
+      <c r="M32">
+        <v>772.800000000052</v>
+      </c>
+      <c r="N32">
+        <v>-7.699999999999818</v>
+      </c>
+      <c r="O32">
+        <v>0.3929121725731895</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>80</v>
+      </c>
+      <c r="D33">
+        <v>1.4</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>400</v>
+      </c>
+      <c r="G33">
+        <v>350</v>
+      </c>
+      <c r="H33">
+        <v>60</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>9</v>
+      </c>
+      <c r="K33">
+        <v>30</v>
+      </c>
+      <c r="L33">
+        <v>20</v>
+      </c>
+      <c r="M33">
+        <v>742.8000000000857</v>
+      </c>
+      <c r="N33">
+        <v>-1752.199999999931</v>
+      </c>
+      <c r="O33">
+        <v>0.2629945694336695</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34">
+        <v>48</v>
+      </c>
+      <c r="B34">
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <v>80</v>
+      </c>
+      <c r="D34">
+        <v>2.2</v>
+      </c>
+      <c r="E34">
+        <v>2.4</v>
+      </c>
+      <c r="F34">
+        <v>200</v>
+      </c>
+      <c r="G34">
+        <v>400</v>
+      </c>
+      <c r="H34">
+        <v>180</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>9</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>5</v>
+      </c>
+      <c r="M34">
+        <v>700.8999999999987</v>
+      </c>
+      <c r="N34">
+        <v>-31.100000000004</v>
+      </c>
+      <c r="O34">
+        <v>0.3898094449047225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35">
+        <v>113</v>
+      </c>
+      <c r="B35">
+        <v>30</v>
+      </c>
+      <c r="C35">
+        <v>100</v>
+      </c>
+      <c r="D35">
+        <v>3.6</v>
+      </c>
+      <c r="E35">
+        <v>3.2</v>
+      </c>
+      <c r="F35">
+        <v>300</v>
+      </c>
+      <c r="G35">
+        <v>50</v>
+      </c>
+      <c r="H35">
+        <v>60</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>16</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>13</v>
+      </c>
+      <c r="M35">
+        <v>695.5999999999785</v>
+      </c>
+      <c r="N35">
+        <v>-1350.700000000023</v>
+      </c>
+      <c r="O35">
+        <v>0.3633507853403141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36">
+        <v>105</v>
+      </c>
+      <c r="B36">
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+      <c r="D36">
+        <v>2.8</v>
+      </c>
+      <c r="E36">
+        <v>3.6</v>
+      </c>
+      <c r="F36">
+        <v>400</v>
+      </c>
+      <c r="G36">
+        <v>400</v>
+      </c>
+      <c r="H36">
+        <v>180</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>16</v>
+      </c>
+      <c r="K36">
+        <v>30</v>
+      </c>
+      <c r="L36">
+        <v>20</v>
+      </c>
+      <c r="M36">
+        <v>686.6999999999271</v>
+      </c>
+      <c r="N36">
+        <v>-2896.400000000046</v>
+      </c>
+      <c r="O36">
+        <v>0.3510276504509833</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37">
+        <v>55</v>
+      </c>
+      <c r="B37">
+        <v>40</v>
+      </c>
+      <c r="C37">
+        <v>40</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>1.8</v>
+      </c>
+      <c r="F37">
+        <v>250</v>
+      </c>
+      <c r="G37">
+        <v>100</v>
+      </c>
+      <c r="H37">
+        <v>100</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>8</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>9</v>
+      </c>
+      <c r="M37">
+        <v>613.8000000000666</v>
+      </c>
+      <c r="N37">
+        <v>-284.9999999999327</v>
+      </c>
+      <c r="O37">
+        <v>0.3352286773794809</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38">
+        <v>103</v>
+      </c>
+      <c r="B38">
+        <v>30</v>
+      </c>
+      <c r="C38">
+        <v>60</v>
+      </c>
+      <c r="D38">
+        <v>1.6</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>100</v>
+      </c>
+      <c r="G38">
+        <v>150</v>
+      </c>
+      <c r="H38">
+        <v>80</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>17</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>16</v>
+      </c>
+      <c r="M38">
+        <v>610.1999999999762</v>
+      </c>
+      <c r="N38">
+        <v>-2022.100000000007</v>
+      </c>
+      <c r="O38">
+        <v>0.3216753022452504</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39">
+        <v>116</v>
+      </c>
+      <c r="B39">
+        <v>50</v>
+      </c>
+      <c r="C39">
+        <v>80</v>
+      </c>
+      <c r="D39">
+        <v>2.4</v>
+      </c>
+      <c r="E39">
+        <v>1.6</v>
+      </c>
+      <c r="F39">
+        <v>150</v>
+      </c>
+      <c r="G39">
+        <v>250</v>
+      </c>
+      <c r="H39">
+        <v>180</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>10</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>9</v>
+      </c>
+      <c r="M39">
+        <v>543.4000000001088</v>
+      </c>
+      <c r="N39">
+        <v>28.19999999999982</v>
+      </c>
+      <c r="O39">
+        <v>0.319951705402958</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40">
+        <v>138</v>
+      </c>
+      <c r="B40">
+        <v>30</v>
+      </c>
+      <c r="C40">
+        <v>100</v>
+      </c>
+      <c r="D40">
+        <v>3.2</v>
+      </c>
+      <c r="E40">
+        <v>2.6</v>
+      </c>
+      <c r="F40">
+        <v>400</v>
+      </c>
+      <c r="G40">
+        <v>100</v>
+      </c>
+      <c r="H40">
+        <v>80</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>11</v>
+      </c>
+      <c r="K40">
+        <v>30</v>
+      </c>
+      <c r="L40">
+        <v>6</v>
+      </c>
+      <c r="M40">
+        <v>537.2000000000653</v>
+      </c>
+      <c r="N40">
+        <v>-77.29999999999745</v>
+      </c>
+      <c r="O40">
+        <v>0.3621593291404612</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41">
+        <v>73</v>
+      </c>
+      <c r="B41">
+        <v>30</v>
+      </c>
+      <c r="C41">
+        <v>60</v>
+      </c>
+      <c r="D41">
+        <v>3.8</v>
+      </c>
+      <c r="E41">
+        <v>2.4</v>
+      </c>
+      <c r="F41">
+        <v>250</v>
+      </c>
+      <c r="G41">
+        <v>350</v>
+      </c>
+      <c r="H41">
+        <v>40</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>13</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>17</v>
+      </c>
+      <c r="M41">
+        <v>519.4000000000469</v>
+      </c>
+      <c r="N41">
+        <v>-2589.099999999998</v>
+      </c>
+      <c r="O41">
+        <v>0.2689972786267532</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42">
+        <v>52</v>
+      </c>
+      <c r="B42">
+        <v>20</v>
+      </c>
+      <c r="C42">
+        <v>100</v>
+      </c>
+      <c r="D42">
+        <v>2.6</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>400</v>
+      </c>
+      <c r="G42">
+        <v>200</v>
+      </c>
+      <c r="H42">
+        <v>20</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>10</v>
+      </c>
+      <c r="K42">
+        <v>30</v>
+      </c>
+      <c r="L42">
+        <v>7</v>
+      </c>
+      <c r="M42">
+        <v>486.5000000000664</v>
+      </c>
+      <c r="N42">
+        <v>-31.29999999999927</v>
+      </c>
+      <c r="O42">
+        <v>0.3802358682391216</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>20</v>
+      </c>
+      <c r="C43">
+        <v>100</v>
+      </c>
+      <c r="D43">
+        <v>2.6</v>
+      </c>
+      <c r="E43">
+        <v>1.6</v>
+      </c>
+      <c r="F43">
+        <v>100</v>
+      </c>
+      <c r="G43">
+        <v>350</v>
+      </c>
+      <c r="H43">
+        <v>20</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>15</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>16</v>
+      </c>
+      <c r="M43">
+        <v>456.7000000000071</v>
+      </c>
+      <c r="N43">
+        <v>-2144.900000000002</v>
+      </c>
+      <c r="O43">
+        <v>0.3439332431213352</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44">
+        <v>28</v>
+      </c>
+      <c r="B44">
+        <v>50</v>
+      </c>
+      <c r="C44">
+        <v>80</v>
+      </c>
+      <c r="D44">
+        <v>1.8</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <v>400</v>
+      </c>
+      <c r="G44">
+        <v>50</v>
+      </c>
+      <c r="H44">
+        <v>120</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>17</v>
+      </c>
+      <c r="K44">
+        <v>30</v>
+      </c>
+      <c r="L44">
+        <v>16</v>
+      </c>
+      <c r="M44">
+        <v>450.9999999999154</v>
+      </c>
+      <c r="N44">
+        <v>-1893.100000000035</v>
+      </c>
+      <c r="O44">
+        <v>0.382991930477964</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>40</v>
+      </c>
+      <c r="C45">
+        <v>60</v>
+      </c>
+      <c r="D45">
+        <v>3.8</v>
+      </c>
+      <c r="E45">
+        <v>2.2</v>
+      </c>
+      <c r="F45">
+        <v>300</v>
+      </c>
+      <c r="G45">
+        <v>400</v>
+      </c>
+      <c r="H45">
+        <v>160</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>9</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>6</v>
+      </c>
+      <c r="M45">
+        <v>350.7000000000198</v>
+      </c>
+      <c r="N45">
+        <v>-53.59999999999854</v>
+      </c>
+      <c r="O45">
+        <v>0.3761432926829268</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46">
+        <v>49</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>60</v>
+      </c>
+      <c r="D46">
         <v>3.4</v>
       </c>
-      <c r="F25">
+      <c r="E46">
+        <v>3.4</v>
+      </c>
+      <c r="F46">
+        <v>150</v>
+      </c>
+      <c r="G46">
+        <v>50</v>
+      </c>
+      <c r="H46">
+        <v>120</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>12</v>
+      </c>
+      <c r="K46">
+        <v>30</v>
+      </c>
+      <c r="L46">
+        <v>9</v>
+      </c>
+      <c r="M46">
+        <v>317.4000000000979</v>
+      </c>
+      <c r="N46">
+        <v>-86.90000000000236</v>
+      </c>
+      <c r="O46">
+        <v>0.3416289592760181</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47">
+        <v>16</v>
+      </c>
+      <c r="B47">
+        <v>30</v>
+      </c>
+      <c r="C47">
+        <v>100</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>1.2</v>
+      </c>
+      <c r="F47">
+        <v>400</v>
+      </c>
+      <c r="G47">
+        <v>400</v>
+      </c>
+      <c r="H47">
+        <v>140</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>14</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>20</v>
+      </c>
+      <c r="M47">
+        <v>215.1999999999598</v>
+      </c>
+      <c r="N47">
+        <v>-3358.700000000045</v>
+      </c>
+      <c r="O47">
+        <v>0.362526452873189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48">
+        <v>108</v>
+      </c>
+      <c r="B48">
+        <v>30</v>
+      </c>
+      <c r="C48">
+        <v>40</v>
+      </c>
+      <c r="D48">
+        <v>3.2</v>
+      </c>
+      <c r="E48">
+        <v>1.2</v>
+      </c>
+      <c r="F48">
+        <v>200</v>
+      </c>
+      <c r="G48">
+        <v>50</v>
+      </c>
+      <c r="H48">
+        <v>40</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>11</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>18</v>
+      </c>
+      <c r="M48">
+        <v>210.0999999999913</v>
+      </c>
+      <c r="N48">
+        <v>-1107.700000000024</v>
+      </c>
+      <c r="O48">
+        <v>0.361733382298935</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49">
+        <v>143</v>
+      </c>
+      <c r="B49">
+        <v>50</v>
+      </c>
+      <c r="C49">
+        <v>60</v>
+      </c>
+      <c r="D49">
+        <v>2.2</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49">
+        <v>350</v>
+      </c>
+      <c r="G49">
+        <v>50</v>
+      </c>
+      <c r="H49">
+        <v>140</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>12</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>12</v>
+      </c>
+      <c r="M49">
+        <v>207.3000000000848</v>
+      </c>
+      <c r="N49">
+        <v>-2185.899999999941</v>
+      </c>
+      <c r="O49">
+        <v>0.2996992070002735</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50">
+        <v>123</v>
+      </c>
+      <c r="B50">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>80</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50">
         <v>250</v>
       </c>
-      <c r="G25">
+      <c r="G50">
+        <v>100</v>
+      </c>
+      <c r="H50">
+        <v>60</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>13</v>
+      </c>
+      <c r="K50">
+        <v>30</v>
+      </c>
+      <c r="L50">
+        <v>8</v>
+      </c>
+      <c r="M50">
+        <v>156.9000000001106</v>
+      </c>
+      <c r="N50">
+        <v>-279.4999999999363</v>
+      </c>
+      <c r="O50">
+        <v>0.3451972555746141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51">
+        <v>18</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>60</v>
+      </c>
+      <c r="D51">
+        <v>1.4</v>
+      </c>
+      <c r="E51">
+        <v>1.6</v>
+      </c>
+      <c r="F51">
+        <v>400</v>
+      </c>
+      <c r="G51">
+        <v>400</v>
+      </c>
+      <c r="H51">
+        <v>140</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>11</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>20</v>
+      </c>
+      <c r="M51">
+        <v>-29.69999999989159</v>
+      </c>
+      <c r="N51">
+        <v>-2324.499999999913</v>
+      </c>
+      <c r="O51">
+        <v>0.3562283737024222</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52">
+        <v>106</v>
+      </c>
+      <c r="B52">
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <v>60</v>
+      </c>
+      <c r="D52">
+        <v>3.2</v>
+      </c>
+      <c r="E52">
+        <v>2.2</v>
+      </c>
+      <c r="F52">
+        <v>50</v>
+      </c>
+      <c r="G52">
+        <v>200</v>
+      </c>
+      <c r="H52">
+        <v>60</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>11</v>
+      </c>
+      <c r="K52">
+        <v>30</v>
+      </c>
+      <c r="L52">
+        <v>8</v>
+      </c>
+      <c r="M52">
+        <v>-32.79999999992287</v>
+      </c>
+      <c r="N52">
+        <v>-245.9999999999418</v>
+      </c>
+      <c r="O52">
+        <v>0.3636363636363636</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53">
+        <v>50</v>
+      </c>
+      <c r="C53">
+        <v>40</v>
+      </c>
+      <c r="D53">
+        <v>1.6</v>
+      </c>
+      <c r="E53">
+        <v>1.6</v>
+      </c>
+      <c r="F53">
+        <v>150</v>
+      </c>
+      <c r="G53">
+        <v>200</v>
+      </c>
+      <c r="H53">
+        <v>120</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>12</v>
+      </c>
+      <c r="K53">
+        <v>30</v>
+      </c>
+      <c r="L53">
+        <v>9</v>
+      </c>
+      <c r="M53">
+        <v>-137.0999999998921</v>
+      </c>
+      <c r="N53">
+        <v>-586.7999999999402</v>
+      </c>
+      <c r="O53">
+        <v>0.3323274236137307</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>30</v>
+      </c>
+      <c r="C54">
+        <v>100</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>2.2</v>
+      </c>
+      <c r="F54">
+        <v>150</v>
+      </c>
+      <c r="G54">
+        <v>250</v>
+      </c>
+      <c r="H54">
+        <v>80</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>15</v>
+      </c>
+      <c r="K54">
+        <v>30</v>
+      </c>
+      <c r="L54">
+        <v>15</v>
+      </c>
+      <c r="M54">
+        <v>-163.1000000000149</v>
+      </c>
+      <c r="N54">
+        <v>-3152.900000000027</v>
+      </c>
+      <c r="O54">
+        <v>0.3427695211134701</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55">
+        <v>26</v>
+      </c>
+      <c r="B55">
+        <v>30</v>
+      </c>
+      <c r="C55">
+        <v>80</v>
+      </c>
+      <c r="D55">
+        <v>3.4</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>100</v>
+      </c>
+      <c r="G55">
+        <v>400</v>
+      </c>
+      <c r="H55">
+        <v>60</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>8</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>4</v>
+      </c>
+      <c r="M55">
+        <v>-227.7000000000025</v>
+      </c>
+      <c r="N55">
+        <v>-510.0999999999894</v>
+      </c>
+      <c r="O55">
+        <v>0.3782830262642101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56">
+        <v>125</v>
+      </c>
+      <c r="B56">
+        <v>50</v>
+      </c>
+      <c r="C56">
+        <v>80</v>
+      </c>
+      <c r="D56">
+        <v>1.8</v>
+      </c>
+      <c r="E56">
+        <v>2.4</v>
+      </c>
+      <c r="F56">
+        <v>300</v>
+      </c>
+      <c r="G56">
+        <v>150</v>
+      </c>
+      <c r="H56">
+        <v>40</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>8</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>6</v>
+      </c>
+      <c r="M56">
+        <v>-250.2000000000107</v>
+      </c>
+      <c r="N56">
+        <v>-547.5999999999813</v>
+      </c>
+      <c r="O56">
+        <v>0.3600746268656717</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57">
+        <v>53</v>
+      </c>
+      <c r="B57">
+        <v>50</v>
+      </c>
+      <c r="C57">
+        <v>100</v>
+      </c>
+      <c r="D57">
+        <v>1.2</v>
+      </c>
+      <c r="E57">
+        <v>2.4</v>
+      </c>
+      <c r="F57">
+        <v>150</v>
+      </c>
+      <c r="G57">
+        <v>100</v>
+      </c>
+      <c r="H57">
+        <v>180</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>16</v>
+      </c>
+      <c r="K57">
+        <v>30</v>
+      </c>
+      <c r="L57">
+        <v>5</v>
+      </c>
+      <c r="M57">
+        <v>-354.5999999999349</v>
+      </c>
+      <c r="N57">
+        <v>-708.8999999999669</v>
+      </c>
+      <c r="O57">
+        <v>0.3895424836601307</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58">
+        <v>149</v>
+      </c>
+      <c r="B58">
+        <v>20</v>
+      </c>
+      <c r="C58">
+        <v>60</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>3.2</v>
+      </c>
+      <c r="F58">
+        <v>200</v>
+      </c>
+      <c r="G58">
+        <v>400</v>
+      </c>
+      <c r="H58">
+        <v>200</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>16</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>6</v>
+      </c>
+      <c r="M58">
+        <v>-373.899999999906</v>
+      </c>
+      <c r="N58">
+        <v>-1137.299999999991</v>
+      </c>
+      <c r="O58">
+        <v>0.3657458563535911</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59">
+        <v>5</v>
+      </c>
+      <c r="B59">
+        <v>20</v>
+      </c>
+      <c r="C59">
+        <v>100</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>1.8</v>
+      </c>
+      <c r="F59">
         <v>350</v>
       </c>
-      <c r="H25">
-        <v>100</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
+      <c r="G59">
+        <v>300</v>
+      </c>
+      <c r="H59">
+        <v>100</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>9</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>10</v>
+      </c>
+      <c r="M59">
+        <v>-394.299999999942</v>
+      </c>
+      <c r="N59">
+        <v>-786.3999999999551</v>
+      </c>
+      <c r="O59">
+        <v>0.3649836724441095</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60">
+        <v>7</v>
+      </c>
+      <c r="B60">
+        <v>30</v>
+      </c>
+      <c r="C60">
+        <v>100</v>
+      </c>
+      <c r="D60">
+        <v>2.6</v>
+      </c>
+      <c r="E60">
+        <v>4</v>
+      </c>
+      <c r="F60">
+        <v>250</v>
+      </c>
+      <c r="G60">
+        <v>350</v>
+      </c>
+      <c r="H60">
+        <v>80</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>15</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>15</v>
+      </c>
+      <c r="M60">
+        <v>-416.2000000000007</v>
+      </c>
+      <c r="N60">
+        <v>-3439.80000000001</v>
+      </c>
+      <c r="O60">
+        <v>0.342504080205176</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61">
+        <v>50</v>
+      </c>
+      <c r="C61">
+        <v>40</v>
+      </c>
+      <c r="D61">
+        <v>2.2</v>
+      </c>
+      <c r="E61">
+        <v>1.8</v>
+      </c>
+      <c r="F61">
+        <v>300</v>
+      </c>
+      <c r="G61">
+        <v>350</v>
+      </c>
+      <c r="H61">
+        <v>160</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>10</v>
+      </c>
+      <c r="K61">
+        <v>30</v>
+      </c>
+      <c r="L61">
+        <v>10</v>
+      </c>
+      <c r="M61">
+        <v>-438.6999999998607</v>
+      </c>
+      <c r="N61">
+        <v>-699.2999999998956</v>
+      </c>
+      <c r="O61">
+        <v>0.3117384843982169</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62">
+        <v>148</v>
+      </c>
+      <c r="B62">
+        <v>40</v>
+      </c>
+      <c r="C62">
+        <v>100</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1.2</v>
+      </c>
+      <c r="F62">
+        <v>350</v>
+      </c>
+      <c r="G62">
+        <v>50</v>
+      </c>
+      <c r="H62">
+        <v>100</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>8</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>14</v>
+      </c>
+      <c r="M62">
+        <v>-483.5999999999467</v>
+      </c>
+      <c r="N62">
+        <v>-1053.899999999915</v>
+      </c>
+      <c r="O62">
+        <v>0.3513806172171088</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63">
+        <v>121</v>
+      </c>
+      <c r="B63">
+        <v>20</v>
+      </c>
+      <c r="C63">
+        <v>60</v>
+      </c>
+      <c r="D63">
+        <v>1.4</v>
+      </c>
+      <c r="E63">
+        <v>2.2</v>
+      </c>
+      <c r="F63">
+        <v>250</v>
+      </c>
+      <c r="G63">
+        <v>250</v>
+      </c>
+      <c r="H63">
+        <v>160</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>13</v>
+      </c>
+      <c r="K63">
+        <v>30</v>
+      </c>
+      <c r="L63">
+        <v>7</v>
+      </c>
+      <c r="M63">
+        <v>-620.3999999999005</v>
+      </c>
+      <c r="N63">
+        <v>-851.2999999999456</v>
+      </c>
+      <c r="O63">
+        <v>0.3464680442095147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64">
+        <v>12</v>
+      </c>
+      <c r="B64">
+        <v>30</v>
+      </c>
+      <c r="C64">
+        <v>40</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>1.4</v>
+      </c>
+      <c r="F64">
+        <v>400</v>
+      </c>
+      <c r="G64">
+        <v>100</v>
+      </c>
+      <c r="H64">
+        <v>40</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
         <v>11</v>
       </c>
-      <c r="K25">
-        <v>30</v>
-      </c>
-      <c r="L25">
+      <c r="K64">
+        <v>30</v>
+      </c>
+      <c r="L64">
+        <v>14</v>
+      </c>
+      <c r="M64">
+        <v>-642.3999999999987</v>
+      </c>
+      <c r="N64">
+        <v>-2400.999999999977</v>
+      </c>
+      <c r="O64">
+        <v>0.3531515422440769</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65">
+        <v>98</v>
+      </c>
+      <c r="B65">
+        <v>20</v>
+      </c>
+      <c r="C65">
+        <v>100</v>
+      </c>
+      <c r="D65">
+        <v>1.8</v>
+      </c>
+      <c r="E65">
+        <v>3.4</v>
+      </c>
+      <c r="F65">
+        <v>100</v>
+      </c>
+      <c r="G65">
+        <v>100</v>
+      </c>
+      <c r="H65">
+        <v>180</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>13</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>7</v>
+      </c>
+      <c r="M65">
+        <v>-660.3999999999169</v>
+      </c>
+      <c r="N65">
+        <v>-801.9999999999336</v>
+      </c>
+      <c r="O65">
+        <v>0.3445497630331754</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66">
+        <v>97</v>
+      </c>
+      <c r="B66">
+        <v>50</v>
+      </c>
+      <c r="C66">
+        <v>80</v>
+      </c>
+      <c r="D66">
+        <v>3.4</v>
+      </c>
+      <c r="E66">
+        <v>4</v>
+      </c>
+      <c r="F66">
+        <v>300</v>
+      </c>
+      <c r="G66">
+        <v>200</v>
+      </c>
+      <c r="H66">
+        <v>140</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>9</v>
+      </c>
+      <c r="K66">
+        <v>30</v>
+      </c>
+      <c r="L66">
+        <v>9</v>
+      </c>
+      <c r="M66">
+        <v>-691.7999999998956</v>
+      </c>
+      <c r="N66">
+        <v>-927.2999999999138</v>
+      </c>
+      <c r="O66">
+        <v>0.3205164992826399</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67">
+        <v>137</v>
+      </c>
+      <c r="B67">
+        <v>20</v>
+      </c>
+      <c r="C67">
+        <v>40</v>
+      </c>
+      <c r="D67">
+        <v>2.8</v>
+      </c>
+      <c r="E67">
+        <v>1.2</v>
+      </c>
+      <c r="F67">
+        <v>200</v>
+      </c>
+      <c r="G67">
+        <v>50</v>
+      </c>
+      <c r="H67">
+        <v>180</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>14</v>
+      </c>
+      <c r="K67">
+        <v>30</v>
+      </c>
+      <c r="L67">
+        <v>18</v>
+      </c>
+      <c r="M67">
+        <v>-707.1000000000249</v>
+      </c>
+      <c r="N67">
+        <v>-1531.00000000002</v>
+      </c>
+      <c r="O67">
+        <v>0.3654240065546907</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68">
+        <v>132</v>
+      </c>
+      <c r="B68">
+        <v>20</v>
+      </c>
+      <c r="C68">
+        <v>100</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68">
+        <v>1.4</v>
+      </c>
+      <c r="F68">
+        <v>350</v>
+      </c>
+      <c r="G68">
+        <v>350</v>
+      </c>
+      <c r="H68">
+        <v>140</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>12</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>17</v>
+      </c>
+      <c r="M68">
+        <v>-789.2999999999811</v>
+      </c>
+      <c r="N68">
+        <v>-3525.599999999979</v>
+      </c>
+      <c r="O68">
+        <v>0.342057942057942</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69">
+        <v>101</v>
+      </c>
+      <c r="B69">
+        <v>40</v>
+      </c>
+      <c r="C69">
+        <v>100</v>
+      </c>
+      <c r="D69">
+        <v>3.6</v>
+      </c>
+      <c r="E69">
+        <v>2.8</v>
+      </c>
+      <c r="F69">
+        <v>400</v>
+      </c>
+      <c r="G69">
+        <v>50</v>
+      </c>
+      <c r="H69">
+        <v>140</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>13</v>
+      </c>
+      <c r="K69">
+        <v>30</v>
+      </c>
+      <c r="L69">
+        <v>7</v>
+      </c>
+      <c r="M69">
+        <v>-804.5999999999312</v>
+      </c>
+      <c r="N69">
+        <v>-873.99999999994</v>
+      </c>
+      <c r="O69">
+        <v>0.3509108341323107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70">
+        <v>50</v>
+      </c>
+      <c r="C70">
+        <v>60</v>
+      </c>
+      <c r="D70">
+        <v>1.6</v>
+      </c>
+      <c r="E70">
+        <v>3.6</v>
+      </c>
+      <c r="F70">
+        <v>300</v>
+      </c>
+      <c r="G70">
+        <v>100</v>
+      </c>
+      <c r="H70">
+        <v>60</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>17</v>
+      </c>
+      <c r="K70">
+        <v>30</v>
+      </c>
+      <c r="L70">
+        <v>12</v>
+      </c>
+      <c r="M70">
+        <v>-822.4999999999827</v>
+      </c>
+      <c r="N70">
+        <v>-2431.399999999993</v>
+      </c>
+      <c r="O70">
+        <v>0.3550745832114653</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71">
+        <v>14</v>
+      </c>
+      <c r="B71">
+        <v>20</v>
+      </c>
+      <c r="C71">
+        <v>100</v>
+      </c>
+      <c r="D71">
+        <v>3.6</v>
+      </c>
+      <c r="E71">
+        <v>2.4</v>
+      </c>
+      <c r="F71">
+        <v>250</v>
+      </c>
+      <c r="G71">
+        <v>400</v>
+      </c>
+      <c r="H71">
+        <v>120</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>17</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>6</v>
+      </c>
+      <c r="M71">
+        <v>-879.2999999999602</v>
+      </c>
+      <c r="N71">
+        <v>-1840.399999999984</v>
+      </c>
+      <c r="O71">
+        <v>0.3577008928571428</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72">
+        <v>65</v>
+      </c>
+      <c r="B72">
+        <v>30</v>
+      </c>
+      <c r="C72">
+        <v>80</v>
+      </c>
+      <c r="D72">
+        <v>2.6</v>
+      </c>
+      <c r="E72">
+        <v>2.6</v>
+      </c>
+      <c r="F72">
+        <v>150</v>
+      </c>
+      <c r="G72">
+        <v>350</v>
+      </c>
+      <c r="H72">
+        <v>40</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>13</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>18</v>
+      </c>
+      <c r="M72">
+        <v>-1050.599999999982</v>
+      </c>
+      <c r="N72">
+        <v>-4218.900000000009</v>
+      </c>
+      <c r="O72">
+        <v>0.3462082912032356</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73">
+        <v>30</v>
+      </c>
+      <c r="B73">
+        <v>30</v>
+      </c>
+      <c r="C73">
+        <v>60</v>
+      </c>
+      <c r="D73">
+        <v>3.2</v>
+      </c>
+      <c r="E73">
+        <v>1.4</v>
+      </c>
+      <c r="F73">
+        <v>150</v>
+      </c>
+      <c r="G73">
+        <v>250</v>
+      </c>
+      <c r="H73">
+        <v>180</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>14</v>
+      </c>
+      <c r="K73">
+        <v>30</v>
+      </c>
+      <c r="L73">
+        <v>4</v>
+      </c>
+      <c r="M73">
+        <v>-1077.299999999938</v>
+      </c>
+      <c r="N73">
+        <v>-1131.999999999943</v>
+      </c>
+      <c r="O73">
+        <v>0.3978899773926149</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74">
+        <v>23</v>
+      </c>
+      <c r="B74">
+        <v>10</v>
+      </c>
+      <c r="C74">
+        <v>80</v>
+      </c>
+      <c r="D74">
+        <v>1.4</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>350</v>
+      </c>
+      <c r="G74">
+        <v>150</v>
+      </c>
+      <c r="H74">
+        <v>200</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>12</v>
+      </c>
+      <c r="K74">
+        <v>30</v>
+      </c>
+      <c r="L74">
+        <v>9</v>
+      </c>
+      <c r="M74">
+        <v>-1161.699999999962</v>
+      </c>
+      <c r="N74">
+        <v>-1536.099999999985</v>
+      </c>
+      <c r="O74">
+        <v>0.3506591337099811</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75">
+        <v>19</v>
+      </c>
+      <c r="B75">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>100</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>350</v>
+      </c>
+      <c r="G75">
+        <v>300</v>
+      </c>
+      <c r="H75">
+        <v>160</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>17</v>
+      </c>
+      <c r="K75">
+        <v>30</v>
+      </c>
+      <c r="L75">
+        <v>5</v>
+      </c>
+      <c r="M75">
+        <v>-1207.199999999995</v>
+      </c>
+      <c r="N75">
+        <v>-1940.499999999991</v>
+      </c>
+      <c r="O75">
+        <v>0.3588850174216028</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76">
+        <v>129</v>
+      </c>
+      <c r="B76">
+        <v>20</v>
+      </c>
+      <c r="C76">
+        <v>80</v>
+      </c>
+      <c r="D76">
+        <v>3.8</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <v>250</v>
+      </c>
+      <c r="G76">
+        <v>100</v>
+      </c>
+      <c r="H76">
+        <v>160</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>11</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
         <v>15</v>
       </c>
-      <c r="M25">
+      <c r="M76">
+        <v>-1248.599999999929</v>
+      </c>
+      <c r="N76">
+        <v>-2686.899999999932</v>
+      </c>
+      <c r="O76">
+        <v>0.2769423558897243</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77">
+        <v>31</v>
+      </c>
+      <c r="B77">
+        <v>50</v>
+      </c>
+      <c r="C77">
+        <v>100</v>
+      </c>
+      <c r="D77">
+        <v>1.4</v>
+      </c>
+      <c r="E77">
+        <v>3.6</v>
+      </c>
+      <c r="F77">
+        <v>50</v>
+      </c>
+      <c r="G77">
+        <v>150</v>
+      </c>
+      <c r="H77">
+        <v>100</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>9</v>
+      </c>
+      <c r="K77">
+        <v>30</v>
+      </c>
+      <c r="L77">
+        <v>9</v>
+      </c>
+      <c r="M77">
+        <v>-1252.799999999953</v>
+      </c>
+      <c r="N77">
+        <v>-1568.899999999951</v>
+      </c>
+      <c r="O77">
+        <v>0.3706453455168475</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78">
+        <v>64</v>
+      </c>
+      <c r="B78">
+        <v>10</v>
+      </c>
+      <c r="C78">
+        <v>40</v>
+      </c>
+      <c r="D78">
+        <v>1.8</v>
+      </c>
+      <c r="E78">
+        <v>2.8</v>
+      </c>
+      <c r="F78">
+        <v>50</v>
+      </c>
+      <c r="G78">
+        <v>50</v>
+      </c>
+      <c r="H78">
+        <v>180</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>10</v>
+      </c>
+      <c r="K78">
+        <v>30</v>
+      </c>
+      <c r="L78">
+        <v>10</v>
+      </c>
+      <c r="M78">
+        <v>-1263.299999999902</v>
+      </c>
+      <c r="N78">
+        <v>-1328.499999999903</v>
+      </c>
+      <c r="O78">
+        <v>0.3215558194774347</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79">
+        <v>141</v>
+      </c>
+      <c r="B79">
+        <v>50</v>
+      </c>
+      <c r="C79">
+        <v>100</v>
+      </c>
+      <c r="D79">
+        <v>3.6</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+      <c r="F79">
+        <v>200</v>
+      </c>
+      <c r="G79">
+        <v>100</v>
+      </c>
+      <c r="H79">
+        <v>140</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>13</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>10</v>
+      </c>
+      <c r="M79">
+        <v>-1281.699999999897</v>
+      </c>
+      <c r="N79">
+        <v>-2233.399999999923</v>
+      </c>
+      <c r="O79">
+        <v>0.3119203023016145</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80">
+        <v>151</v>
+      </c>
+      <c r="B80">
+        <v>40</v>
+      </c>
+      <c r="C80">
+        <v>60</v>
+      </c>
+      <c r="D80">
+        <v>1.6</v>
+      </c>
+      <c r="E80">
+        <v>3.4</v>
+      </c>
+      <c r="F80">
+        <v>50</v>
+      </c>
+      <c r="G80">
+        <v>200</v>
+      </c>
+      <c r="H80">
+        <v>160</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>8</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>6</v>
+      </c>
+      <c r="M80">
+        <v>-1334.000000000017</v>
+      </c>
+      <c r="N80">
+        <v>-1631.399999999988</v>
+      </c>
+      <c r="O80">
+        <v>0.3582738280037255</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81">
+        <v>63</v>
+      </c>
+      <c r="B81">
+        <v>20</v>
+      </c>
+      <c r="C81">
+        <v>60</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
+      <c r="E81">
+        <v>2.6</v>
+      </c>
+      <c r="F81">
+        <v>350</v>
+      </c>
+      <c r="G81">
+        <v>150</v>
+      </c>
+      <c r="H81">
+        <v>80</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>12</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>10</v>
+      </c>
+      <c r="M81">
+        <v>-1346.899999999909</v>
+      </c>
+      <c r="N81">
+        <v>-1759.399999999929</v>
+      </c>
+      <c r="O81">
+        <v>0.351414309484193</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82">
+        <v>133</v>
+      </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+      <c r="C82">
+        <v>40</v>
+      </c>
+      <c r="D82">
+        <v>2.8</v>
+      </c>
+      <c r="E82">
+        <v>1.8</v>
+      </c>
+      <c r="F82">
+        <v>50</v>
+      </c>
+      <c r="G82">
+        <v>350</v>
+      </c>
+      <c r="H82">
+        <v>100</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>13</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>18</v>
+      </c>
+      <c r="M82">
+        <v>-1388.499999999957</v>
+      </c>
+      <c r="N82">
+        <v>-3303.49999999999</v>
+      </c>
+      <c r="O82">
+        <v>0.249645390070922</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83">
+        <v>131</v>
+      </c>
+      <c r="B83">
+        <v>50</v>
+      </c>
+      <c r="C83">
+        <v>60</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>1.4</v>
+      </c>
+      <c r="F83">
+        <v>100</v>
+      </c>
+      <c r="G83">
+        <v>400</v>
+      </c>
+      <c r="H83">
+        <v>60</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>17</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>9</v>
+      </c>
+      <c r="M83">
+        <v>-1440.099999999978</v>
+      </c>
+      <c r="N83">
+        <v>-3346.999999999979</v>
+      </c>
+      <c r="O83">
+        <v>0.3506629448709002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84">
+        <v>67</v>
+      </c>
+      <c r="B84">
+        <v>50</v>
+      </c>
+      <c r="C84">
+        <v>100</v>
+      </c>
+      <c r="D84">
+        <v>1.8</v>
+      </c>
+      <c r="E84">
+        <v>1.8</v>
+      </c>
+      <c r="F84">
+        <v>250</v>
+      </c>
+      <c r="G84">
+        <v>150</v>
+      </c>
+      <c r="H84">
+        <v>40</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>17</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>8</v>
+      </c>
+      <c r="M84">
+        <v>-1446.00000000001</v>
+      </c>
+      <c r="N84">
+        <v>-4003.999999999997</v>
+      </c>
+      <c r="O84">
+        <v>0.3507954986418316</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85">
+        <v>38</v>
+      </c>
+      <c r="B85">
+        <v>40</v>
+      </c>
+      <c r="C85">
+        <v>80</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
+      </c>
+      <c r="E85">
+        <v>3.6</v>
+      </c>
+      <c r="F85">
+        <v>300</v>
+      </c>
+      <c r="G85">
+        <v>400</v>
+      </c>
+      <c r="H85">
+        <v>40</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>11</v>
+      </c>
+      <c r="K85">
+        <v>30</v>
+      </c>
+      <c r="L85">
+        <v>13</v>
+      </c>
+      <c r="M85">
+        <v>-1499.499999999968</v>
+      </c>
+      <c r="N85">
+        <v>-3394.099999999958</v>
+      </c>
+      <c r="O85">
+        <v>0.3476885644768856</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86">
+        <v>110</v>
+      </c>
+      <c r="B86">
+        <v>50</v>
+      </c>
+      <c r="C86">
+        <v>100</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86">
+        <v>1.2</v>
+      </c>
+      <c r="F86">
+        <v>350</v>
+      </c>
+      <c r="G86">
+        <v>350</v>
+      </c>
+      <c r="H86">
+        <v>200</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>17</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>7</v>
+      </c>
+      <c r="M86">
+        <v>-1500.999999999975</v>
+      </c>
+      <c r="N86">
+        <v>-3662.599999999975</v>
+      </c>
+      <c r="O86">
+        <v>0.3493023255813953</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87">
+        <v>89</v>
+      </c>
+      <c r="B87">
+        <v>50</v>
+      </c>
+      <c r="C87">
+        <v>80</v>
+      </c>
+      <c r="D87">
+        <v>2.8</v>
+      </c>
+      <c r="E87">
+        <v>3</v>
+      </c>
+      <c r="F87">
+        <v>150</v>
+      </c>
+      <c r="G87">
+        <v>100</v>
+      </c>
+      <c r="H87">
+        <v>80</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>16</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>5</v>
+      </c>
+      <c r="M87">
+        <v>-1518.29999999994</v>
+      </c>
+      <c r="N87">
+        <v>-1575.199999999953</v>
+      </c>
+      <c r="O87">
+        <v>0.3867010974822466</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88">
+        <v>112</v>
+      </c>
+      <c r="B88">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <v>60</v>
+      </c>
+      <c r="D88">
+        <v>3.8</v>
+      </c>
+      <c r="E88">
+        <v>2.6</v>
+      </c>
+      <c r="F88">
+        <v>300</v>
+      </c>
+      <c r="G88">
+        <v>200</v>
+      </c>
+      <c r="H88">
+        <v>180</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>13</v>
+      </c>
+      <c r="K88">
+        <v>30</v>
+      </c>
+      <c r="L88">
+        <v>18</v>
+      </c>
+      <c r="M88">
+        <v>-1523.799999999919</v>
+      </c>
+      <c r="N88">
+        <v>-3647.899999999943</v>
+      </c>
+      <c r="O88">
+        <v>0.3465058236272879</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89">
+        <v>152</v>
+      </c>
+      <c r="B89">
+        <v>20</v>
+      </c>
+      <c r="C89">
+        <v>40</v>
+      </c>
+      <c r="D89">
+        <v>3.4</v>
+      </c>
+      <c r="E89">
+        <v>3.6</v>
+      </c>
+      <c r="F89">
+        <v>250</v>
+      </c>
+      <c r="G89">
+        <v>150</v>
+      </c>
+      <c r="H89">
+        <v>180</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>10</v>
+      </c>
+      <c r="K89">
+        <v>30</v>
+      </c>
+      <c r="L89">
+        <v>15</v>
+      </c>
+      <c r="M89">
+        <v>-1557.900000000005</v>
+      </c>
+      <c r="N89">
+        <v>-3171.099999999982</v>
+      </c>
+      <c r="O89">
+        <v>0.3558477784419207</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90">
+        <v>24</v>
+      </c>
+      <c r="B90">
+        <v>50</v>
+      </c>
+      <c r="C90">
+        <v>60</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+      <c r="E90">
+        <v>3.4</v>
+      </c>
+      <c r="F90">
+        <v>200</v>
+      </c>
+      <c r="G90">
+        <v>400</v>
+      </c>
+      <c r="H90">
+        <v>80</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>16</v>
+      </c>
+      <c r="K90">
+        <v>30</v>
+      </c>
+      <c r="L90">
+        <v>4</v>
+      </c>
+      <c r="M90">
+        <v>-1596.799999999977</v>
+      </c>
+      <c r="N90">
+        <v>-1708.399999999987</v>
+      </c>
+      <c r="O90">
+        <v>0.3505074160811866</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91">
+        <v>68</v>
+      </c>
+      <c r="B91">
+        <v>20</v>
+      </c>
+      <c r="C91">
+        <v>100</v>
+      </c>
+      <c r="D91">
+        <v>1.2</v>
+      </c>
+      <c r="E91">
+        <v>1.2</v>
+      </c>
+      <c r="F91">
+        <v>50</v>
+      </c>
+      <c r="G91">
+        <v>400</v>
+      </c>
+      <c r="H91">
+        <v>160</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>13</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>19</v>
+      </c>
+      <c r="M91">
+        <v>-1628.899999999988</v>
+      </c>
+      <c r="N91">
+        <v>-3588.399999999988</v>
+      </c>
+      <c r="O91">
+        <v>0.3232976358860376</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92">
+        <v>95</v>
+      </c>
+      <c r="B92">
+        <v>20</v>
+      </c>
+      <c r="C92">
+        <v>100</v>
+      </c>
+      <c r="D92">
+        <v>2.4</v>
+      </c>
+      <c r="E92">
+        <v>2</v>
+      </c>
+      <c r="F92">
+        <v>150</v>
+      </c>
+      <c r="G92">
+        <v>400</v>
+      </c>
+      <c r="H92">
+        <v>160</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>17</v>
+      </c>
+      <c r="K92">
+        <v>30</v>
+      </c>
+      <c r="L92">
+        <v>7</v>
+      </c>
+      <c r="M92">
+        <v>-1639.699999999998</v>
+      </c>
+      <c r="N92">
+        <v>-3403.199999999982</v>
+      </c>
+      <c r="O92">
+        <v>0.3152866242038216</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93">
+        <v>114</v>
+      </c>
+      <c r="B93">
+        <v>40</v>
+      </c>
+      <c r="C93">
+        <v>60</v>
+      </c>
+      <c r="D93">
+        <v>2.2</v>
+      </c>
+      <c r="E93">
+        <v>1.4</v>
+      </c>
+      <c r="F93">
+        <v>50</v>
+      </c>
+      <c r="G93">
+        <v>350</v>
+      </c>
+      <c r="H93">
+        <v>160</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>11</v>
+      </c>
+      <c r="K93">
+        <v>30</v>
+      </c>
+      <c r="L93">
+        <v>20</v>
+      </c>
+      <c r="M93">
+        <v>-1640.49999999992</v>
+      </c>
+      <c r="N93">
+        <v>-2780.999999999947</v>
+      </c>
+      <c r="O93">
+        <v>0.3460985257101762</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94">
+        <v>142</v>
+      </c>
+      <c r="B94">
+        <v>20</v>
+      </c>
+      <c r="C94">
+        <v>40</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+      <c r="E94">
+        <v>1.6</v>
+      </c>
+      <c r="F94">
+        <v>350</v>
+      </c>
+      <c r="G94">
+        <v>400</v>
+      </c>
+      <c r="H94">
+        <v>200</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>12</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>14</v>
+      </c>
+      <c r="M94">
+        <v>-1640.49999999997</v>
+      </c>
+      <c r="N94">
+        <v>-3299.499999999961</v>
+      </c>
+      <c r="O94">
+        <v>0.3489963503649635</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95">
+        <v>39</v>
+      </c>
+      <c r="B95">
+        <v>10</v>
+      </c>
+      <c r="C95">
+        <v>40</v>
+      </c>
+      <c r="D95">
+        <v>1.6</v>
+      </c>
+      <c r="E95">
+        <v>2.2</v>
+      </c>
+      <c r="F95">
+        <v>250</v>
+      </c>
+      <c r="G95">
+        <v>200</v>
+      </c>
+      <c r="H95">
+        <v>200</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>17</v>
+      </c>
+      <c r="K95">
+        <v>30</v>
+      </c>
+      <c r="L95">
+        <v>5</v>
+      </c>
+      <c r="M95">
+        <v>-1646.399999999999</v>
+      </c>
+      <c r="N95">
+        <v>-2081.600000000007</v>
+      </c>
+      <c r="O95">
+        <v>0.3467966573816156</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96">
+        <v>9</v>
+      </c>
+      <c r="B96">
+        <v>10</v>
+      </c>
+      <c r="C96">
+        <v>60</v>
+      </c>
+      <c r="D96">
+        <v>3.6</v>
+      </c>
+      <c r="E96">
+        <v>1.8</v>
+      </c>
+      <c r="F96">
+        <v>50</v>
+      </c>
+      <c r="G96">
+        <v>100</v>
+      </c>
+      <c r="H96">
+        <v>20</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>17</v>
+      </c>
+      <c r="K96">
+        <v>30</v>
+      </c>
+      <c r="L96">
+        <v>10</v>
+      </c>
+      <c r="M96">
+        <v>-1653.499999999971</v>
+      </c>
+      <c r="N96">
+        <v>-2773.799999999979</v>
+      </c>
+      <c r="O96">
+        <v>0.3437705998681608</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97">
+        <v>100</v>
+      </c>
+      <c r="B97">
+        <v>30</v>
+      </c>
+      <c r="C97">
+        <v>100</v>
+      </c>
+      <c r="D97">
+        <v>1.8</v>
+      </c>
+      <c r="E97">
+        <v>1.8</v>
+      </c>
+      <c r="F97">
+        <v>150</v>
+      </c>
+      <c r="G97">
+        <v>200</v>
+      </c>
+      <c r="H97">
+        <v>100</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>10</v>
+      </c>
+      <c r="K97">
+        <v>30</v>
+      </c>
+      <c r="L97">
+        <v>12</v>
+      </c>
+      <c r="M97">
+        <v>-1682.699999999945</v>
+      </c>
+      <c r="N97">
+        <v>-2676.399999999928</v>
+      </c>
+      <c r="O97">
+        <v>0.3523049188771568</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98">
+        <v>37</v>
+      </c>
+      <c r="B98">
+        <v>50</v>
+      </c>
+      <c r="C98">
+        <v>40</v>
+      </c>
+      <c r="D98">
+        <v>3.2</v>
+      </c>
+      <c r="E98">
+        <v>1.4</v>
+      </c>
+      <c r="F98">
+        <v>400</v>
+      </c>
+      <c r="G98">
+        <v>100</v>
+      </c>
+      <c r="H98">
+        <v>20</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>15</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>13</v>
+      </c>
+      <c r="M98">
+        <v>-1688.199999999965</v>
+      </c>
+      <c r="N98">
+        <v>-2801.599999999999</v>
+      </c>
+      <c r="O98">
+        <v>0.2949935815147625</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99">
+        <v>153</v>
+      </c>
+      <c r="B99">
+        <v>10</v>
+      </c>
+      <c r="C99">
+        <v>80</v>
+      </c>
+      <c r="D99">
+        <v>2.8</v>
+      </c>
+      <c r="E99">
+        <v>2.2</v>
+      </c>
+      <c r="F99">
+        <v>300</v>
+      </c>
+      <c r="G99">
+        <v>400</v>
+      </c>
+      <c r="H99">
+        <v>40</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>8</v>
+      </c>
+      <c r="K99">
+        <v>30</v>
+      </c>
+      <c r="L99">
+        <v>12</v>
+      </c>
+      <c r="M99">
+        <v>-1703.599999999887</v>
+      </c>
+      <c r="N99">
+        <v>-1919.599999999903</v>
+      </c>
+      <c r="O99">
+        <v>0.3011152416356878</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100">
+        <v>32</v>
+      </c>
+      <c r="B100">
+        <v>20</v>
+      </c>
+      <c r="C100">
+        <v>100</v>
+      </c>
+      <c r="D100">
+        <v>1.2</v>
+      </c>
+      <c r="E100">
+        <v>3</v>
+      </c>
+      <c r="F100">
+        <v>50</v>
+      </c>
+      <c r="G100">
+        <v>250</v>
+      </c>
+      <c r="H100">
+        <v>20</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>10</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>11</v>
+      </c>
+      <c r="M100">
+        <v>-1713.699999999933</v>
+      </c>
+      <c r="N100">
+        <v>-1926.199999999944</v>
+      </c>
+      <c r="O100">
+        <v>0.3609141055949567</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101">
+        <v>8</v>
+      </c>
+      <c r="B101">
+        <v>40</v>
+      </c>
+      <c r="C101">
+        <v>40</v>
+      </c>
+      <c r="D101">
+        <v>3.6</v>
+      </c>
+      <c r="E101">
+        <v>3.8</v>
+      </c>
+      <c r="F101">
+        <v>250</v>
+      </c>
+      <c r="G101">
+        <v>100</v>
+      </c>
+      <c r="H101">
+        <v>180</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>9</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>14</v>
+      </c>
+      <c r="M101">
+        <v>-1911.099999999955</v>
+      </c>
+      <c r="N101">
+        <v>-2538.899999999956</v>
+      </c>
+      <c r="O101">
+        <v>0.3564356435643564</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102">
+        <v>90</v>
+      </c>
+      <c r="B102">
+        <v>10</v>
+      </c>
+      <c r="C102">
+        <v>60</v>
+      </c>
+      <c r="D102">
+        <v>2.2</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+      <c r="F102">
+        <v>100</v>
+      </c>
+      <c r="G102">
+        <v>350</v>
+      </c>
+      <c r="H102">
+        <v>60</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>8</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>12</v>
+      </c>
+      <c r="M102">
+        <v>-1915.3999999999</v>
+      </c>
+      <c r="N102">
+        <v>-2187.499999999924</v>
+      </c>
+      <c r="O102">
+        <v>0.3021496815286624</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103">
+        <v>66</v>
+      </c>
+      <c r="B103">
+        <v>10</v>
+      </c>
+      <c r="C103">
+        <v>60</v>
+      </c>
+      <c r="D103">
+        <v>2.2</v>
+      </c>
+      <c r="E103">
+        <v>3.6</v>
+      </c>
+      <c r="F103">
+        <v>400</v>
+      </c>
+      <c r="G103">
+        <v>300</v>
+      </c>
+      <c r="H103">
+        <v>140</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>10</v>
+      </c>
+      <c r="K103">
+        <v>30</v>
+      </c>
+      <c r="L103">
+        <v>18</v>
+      </c>
+      <c r="M103">
+        <v>-2005.299999999916</v>
+      </c>
+      <c r="N103">
+        <v>-3838.799999999921</v>
+      </c>
+      <c r="O103">
+        <v>0.35507119001582</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104">
+        <v>83</v>
+      </c>
+      <c r="B104">
+        <v>30</v>
+      </c>
+      <c r="C104">
+        <v>80</v>
+      </c>
+      <c r="D104">
+        <v>1.4</v>
+      </c>
+      <c r="E104">
+        <v>2.8</v>
+      </c>
+      <c r="F104">
+        <v>250</v>
+      </c>
+      <c r="G104">
+        <v>400</v>
+      </c>
+      <c r="H104">
+        <v>180</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>10</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>16</v>
+      </c>
+      <c r="M104">
+        <v>-2053.699999999965</v>
+      </c>
+      <c r="N104">
+        <v>-4893.199999999951</v>
+      </c>
+      <c r="O104">
+        <v>0.3561467889908257</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105">
+        <v>27</v>
+      </c>
+      <c r="B105">
+        <v>10</v>
+      </c>
+      <c r="C105">
+        <v>40</v>
+      </c>
+      <c r="D105">
+        <v>1.8</v>
+      </c>
+      <c r="E105">
+        <v>1.6</v>
+      </c>
+      <c r="F105">
+        <v>50</v>
+      </c>
+      <c r="G105">
+        <v>200</v>
+      </c>
+      <c r="H105">
+        <v>20</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>12</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>11</v>
+      </c>
+      <c r="M105">
+        <v>-2113.399999999948</v>
+      </c>
+      <c r="N105">
+        <v>-2579.999999999963</v>
+      </c>
+      <c r="O105">
+        <v>0.350195724179464</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106">
+        <v>117</v>
+      </c>
+      <c r="B106">
+        <v>40</v>
+      </c>
+      <c r="C106">
+        <v>40</v>
+      </c>
+      <c r="D106">
+        <v>3.4</v>
+      </c>
+      <c r="E106">
+        <v>2.4</v>
+      </c>
+      <c r="F106">
+        <v>350</v>
+      </c>
+      <c r="G106">
+        <v>100</v>
+      </c>
+      <c r="H106">
+        <v>180</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>12</v>
+      </c>
+      <c r="K106">
+        <v>30</v>
+      </c>
+      <c r="L106">
+        <v>17</v>
+      </c>
+      <c r="M106">
+        <v>-2159.999999999988</v>
+      </c>
+      <c r="N106">
+        <v>-3465.499999999999</v>
+      </c>
+      <c r="O106">
+        <v>0.3447782546494993</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107">
+        <v>15</v>
+      </c>
+      <c r="B107">
+        <v>20</v>
+      </c>
+      <c r="C107">
+        <v>100</v>
+      </c>
+      <c r="D107">
+        <v>4</v>
+      </c>
+      <c r="E107">
+        <v>1.2</v>
+      </c>
+      <c r="F107">
+        <v>50</v>
+      </c>
+      <c r="G107">
+        <v>100</v>
+      </c>
+      <c r="H107">
+        <v>120</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>16</v>
+      </c>
+      <c r="K107">
+        <v>30</v>
+      </c>
+      <c r="L107">
+        <v>12</v>
+      </c>
+      <c r="M107">
+        <v>-2163.900000000012</v>
+      </c>
+      <c r="N107">
+        <v>-3241.800000000019</v>
+      </c>
+      <c r="O107">
+        <v>0.3354694901086654</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108">
+        <v>47</v>
+      </c>
+      <c r="B108">
+        <v>40</v>
+      </c>
+      <c r="C108">
+        <v>60</v>
+      </c>
+      <c r="D108">
+        <v>4</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+      <c r="F108">
+        <v>400</v>
+      </c>
+      <c r="G108">
+        <v>250</v>
+      </c>
+      <c r="H108">
+        <v>80</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>10</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>19</v>
+      </c>
+      <c r="M108">
+        <v>-2164.599999999907</v>
+      </c>
+      <c r="N108">
+        <v>-4011.399999999915</v>
+      </c>
+      <c r="O108">
+        <v>0.3551570982069419</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="A109">
+        <v>21</v>
+      </c>
+      <c r="B109">
+        <v>40</v>
+      </c>
+      <c r="C109">
+        <v>80</v>
+      </c>
+      <c r="D109">
+        <v>2.4</v>
+      </c>
+      <c r="E109">
+        <v>3.8</v>
+      </c>
+      <c r="F109">
+        <v>300</v>
+      </c>
+      <c r="G109">
+        <v>400</v>
+      </c>
+      <c r="H109">
+        <v>60</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>16</v>
+      </c>
+      <c r="K109">
+        <v>30</v>
+      </c>
+      <c r="L109">
+        <v>16</v>
+      </c>
+      <c r="M109">
+        <v>-2196.200000000022</v>
+      </c>
+      <c r="N109">
+        <v>-5389.600000000029</v>
+      </c>
+      <c r="O109">
+        <v>0.3576051779935275</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="A110">
+        <v>84</v>
+      </c>
+      <c r="B110">
+        <v>40</v>
+      </c>
+      <c r="C110">
+        <v>40</v>
+      </c>
+      <c r="D110">
+        <v>4</v>
+      </c>
+      <c r="E110">
+        <v>2.4</v>
+      </c>
+      <c r="F110">
+        <v>150</v>
+      </c>
+      <c r="G110">
+        <v>200</v>
+      </c>
+      <c r="H110">
+        <v>160</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>14</v>
+      </c>
+      <c r="K110">
+        <v>30</v>
+      </c>
+      <c r="L110">
+        <v>11</v>
+      </c>
+      <c r="M110">
+        <v>-2230.29999999995</v>
+      </c>
+      <c r="N110">
+        <v>-4290.599999999953</v>
+      </c>
+      <c r="O110">
+        <v>0.2854245146334396</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
+      <c r="A111">
+        <v>70</v>
+      </c>
+      <c r="B111">
+        <v>30</v>
+      </c>
+      <c r="C111">
+        <v>60</v>
+      </c>
+      <c r="D111">
+        <v>2.6</v>
+      </c>
+      <c r="E111">
+        <v>2.2</v>
+      </c>
+      <c r="F111">
+        <v>250</v>
+      </c>
+      <c r="G111">
+        <v>350</v>
+      </c>
+      <c r="H111">
+        <v>140</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>17</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>10</v>
+      </c>
+      <c r="M111">
+        <v>-2262.099999999949</v>
+      </c>
+      <c r="N111">
+        <v>-4235.399999999956</v>
+      </c>
+      <c r="O111">
+        <v>0.3470834676119884</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112">
+        <v>86</v>
+      </c>
+      <c r="B112">
+        <v>40</v>
+      </c>
+      <c r="C112">
+        <v>40</v>
+      </c>
+      <c r="D112">
+        <v>2.2</v>
+      </c>
+      <c r="E112">
+        <v>1.2</v>
+      </c>
+      <c r="F112">
+        <v>250</v>
+      </c>
+      <c r="G112">
+        <v>150</v>
+      </c>
+      <c r="H112">
+        <v>100</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>11</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>14</v>
+      </c>
+      <c r="M112">
+        <v>-2281.699999999991</v>
+      </c>
+      <c r="N112">
+        <v>-3650.299999999982</v>
+      </c>
+      <c r="O112">
+        <v>0.3534083388484447</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="A113">
+        <v>10</v>
+      </c>
+      <c r="B113">
+        <v>20</v>
+      </c>
+      <c r="C113">
+        <v>40</v>
+      </c>
+      <c r="D113">
+        <v>3.4</v>
+      </c>
+      <c r="E113">
+        <v>1.2</v>
+      </c>
+      <c r="F113">
+        <v>250</v>
+      </c>
+      <c r="G113">
+        <v>50</v>
+      </c>
+      <c r="H113">
+        <v>180</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>9</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>16</v>
+      </c>
+      <c r="M113">
+        <v>-2288.999999999965</v>
+      </c>
+      <c r="N113">
+        <v>-3000.299999999958</v>
+      </c>
+      <c r="O113">
+        <v>0.2904284727021423</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="A114">
+        <v>147</v>
+      </c>
+      <c r="B114">
+        <v>20</v>
+      </c>
+      <c r="C114">
+        <v>60</v>
+      </c>
+      <c r="D114">
+        <v>2.4</v>
+      </c>
+      <c r="E114">
+        <v>4</v>
+      </c>
+      <c r="F114">
+        <v>250</v>
+      </c>
+      <c r="G114">
+        <v>400</v>
+      </c>
+      <c r="H114">
+        <v>120</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>11</v>
+      </c>
+      <c r="K114">
+        <v>30</v>
+      </c>
+      <c r="L114">
+        <v>15</v>
+      </c>
+      <c r="M114">
+        <v>-2307.699999999904</v>
+      </c>
+      <c r="N114">
+        <v>-3765.399999999896</v>
+      </c>
+      <c r="O114">
+        <v>0.3487092678798138</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
+      <c r="A115">
+        <v>46</v>
+      </c>
+      <c r="B115">
+        <v>50</v>
+      </c>
+      <c r="C115">
+        <v>60</v>
+      </c>
+      <c r="D115">
+        <v>3.2</v>
+      </c>
+      <c r="E115">
+        <v>2.8</v>
+      </c>
+      <c r="F115">
+        <v>300</v>
+      </c>
+      <c r="G115">
+        <v>400</v>
+      </c>
+      <c r="H115">
+        <v>40</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>14</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>8</v>
+      </c>
+      <c r="M115">
+        <v>-2415.299999999936</v>
+      </c>
+      <c r="N115">
+        <v>-2831.199999999953</v>
+      </c>
+      <c r="O115">
+        <v>0.3433734939759036</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="A116">
+        <v>109</v>
+      </c>
+      <c r="B116">
+        <v>40</v>
+      </c>
+      <c r="C116">
+        <v>100</v>
+      </c>
+      <c r="D116">
+        <v>3.2</v>
+      </c>
+      <c r="E116">
+        <v>4</v>
+      </c>
+      <c r="F116">
+        <v>250</v>
+      </c>
+      <c r="G116">
+        <v>100</v>
+      </c>
+      <c r="H116">
+        <v>60</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>13</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>12</v>
+      </c>
+      <c r="M116">
+        <v>-2479.599999999949</v>
+      </c>
+      <c r="N116">
+        <v>-4224.19999999995</v>
+      </c>
+      <c r="O116">
+        <v>0.2811397557666214</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="A117">
+        <v>122</v>
+      </c>
+      <c r="B117">
+        <v>30</v>
+      </c>
+      <c r="C117">
+        <v>40</v>
+      </c>
+      <c r="D117">
+        <v>3.6</v>
+      </c>
+      <c r="E117">
+        <v>4</v>
+      </c>
+      <c r="F117">
+        <v>50</v>
+      </c>
+      <c r="G117">
+        <v>300</v>
+      </c>
+      <c r="H117">
+        <v>180</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>10</v>
+      </c>
+      <c r="K117">
+        <v>30</v>
+      </c>
+      <c r="L117">
+        <v>12</v>
+      </c>
+      <c r="M117">
+        <v>-2499.999999999995</v>
+      </c>
+      <c r="N117">
+        <v>-2935.999999999995</v>
+      </c>
+      <c r="O117">
+        <v>0.3534859789040391</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="B118">
+        <v>50</v>
+      </c>
+      <c r="C118">
+        <v>100</v>
+      </c>
+      <c r="D118">
+        <v>2.4</v>
+      </c>
+      <c r="E118">
+        <v>1.8</v>
+      </c>
+      <c r="F118">
+        <v>50</v>
+      </c>
+      <c r="G118">
+        <v>400</v>
+      </c>
+      <c r="H118">
+        <v>160</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>10</v>
+      </c>
+      <c r="K118">
+        <v>30</v>
+      </c>
+      <c r="L118">
+        <v>19</v>
+      </c>
+      <c r="M118">
+        <v>-2501.199999999988</v>
+      </c>
+      <c r="N118">
+        <v>-4411.299999999968</v>
+      </c>
+      <c r="O118">
+        <v>0.3341854124062713</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
+      <c r="A119">
+        <v>150</v>
+      </c>
+      <c r="B119">
+        <v>20</v>
+      </c>
+      <c r="C119">
+        <v>40</v>
+      </c>
+      <c r="D119">
+        <v>1.8</v>
+      </c>
+      <c r="E119">
+        <v>4</v>
+      </c>
+      <c r="F119">
+        <v>250</v>
+      </c>
+      <c r="G119">
+        <v>400</v>
+      </c>
+      <c r="H119">
+        <v>180</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>16</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>10</v>
+      </c>
+      <c r="M119">
+        <v>-2568.699999999975</v>
+      </c>
+      <c r="N119">
+        <v>-4194.699999999968</v>
+      </c>
+      <c r="O119">
+        <v>0.3472135253600501</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="A120">
+        <v>78</v>
+      </c>
+      <c r="B120">
+        <v>40</v>
+      </c>
+      <c r="C120">
+        <v>80</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>1.2</v>
+      </c>
+      <c r="F120">
+        <v>250</v>
+      </c>
+      <c r="G120">
+        <v>100</v>
+      </c>
+      <c r="H120">
+        <v>20</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>12</v>
+      </c>
+      <c r="K120">
+        <v>30</v>
+      </c>
+      <c r="L120">
+        <v>16</v>
+      </c>
+      <c r="M120">
+        <v>-2591.099999999946</v>
+      </c>
+      <c r="N120">
+        <v>-3353.899999999983</v>
+      </c>
+      <c r="O120">
+        <v>0.2829705505761844</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
+      <c r="A121">
+        <v>77</v>
+      </c>
+      <c r="B121">
+        <v>20</v>
+      </c>
+      <c r="C121">
+        <v>100</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121">
+        <v>4</v>
+      </c>
+      <c r="F121">
+        <v>250</v>
+      </c>
+      <c r="G121">
+        <v>250</v>
+      </c>
+      <c r="H121">
+        <v>180</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>10</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>14</v>
+      </c>
+      <c r="M121">
+        <v>-2768.89999999988</v>
+      </c>
+      <c r="N121">
+        <v>-4238.899999999883</v>
+      </c>
+      <c r="O121">
+        <v>0.2678419711129992</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="A122">
+        <v>102</v>
+      </c>
+      <c r="B122">
+        <v>40</v>
+      </c>
+      <c r="C122">
+        <v>100</v>
+      </c>
+      <c r="D122">
+        <v>3.4</v>
+      </c>
+      <c r="E122">
+        <v>3.6</v>
+      </c>
+      <c r="F122">
+        <v>300</v>
+      </c>
+      <c r="G122">
+        <v>100</v>
+      </c>
+      <c r="H122">
+        <v>40</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>9</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>17</v>
+      </c>
+      <c r="M122">
+        <v>-2790.999999999932</v>
+      </c>
+      <c r="N122">
+        <v>-4036.899999999913</v>
+      </c>
+      <c r="O122">
+        <v>0.2735817941952506</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="A123">
+        <v>6</v>
+      </c>
+      <c r="B123">
+        <v>20</v>
+      </c>
+      <c r="C123">
+        <v>60</v>
+      </c>
+      <c r="D123">
+        <v>1.4</v>
+      </c>
+      <c r="E123">
+        <v>2.6</v>
+      </c>
+      <c r="F123">
+        <v>150</v>
+      </c>
+      <c r="G123">
+        <v>100</v>
+      </c>
+      <c r="H123">
+        <v>100</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>12</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>17</v>
+      </c>
+      <c r="M123">
+        <v>-2899.999999999936</v>
+      </c>
+      <c r="N123">
+        <v>-3728.599999999949</v>
+      </c>
+      <c r="O123">
+        <v>0.2794619554306364</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="A124">
+        <v>45</v>
+      </c>
+      <c r="B124">
+        <v>50</v>
+      </c>
+      <c r="C124">
+        <v>80</v>
+      </c>
+      <c r="D124">
+        <v>3</v>
+      </c>
+      <c r="E124">
+        <v>3</v>
+      </c>
+      <c r="F124">
+        <v>150</v>
+      </c>
+      <c r="G124">
+        <v>400</v>
+      </c>
+      <c r="H124">
+        <v>120</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>16</v>
+      </c>
+      <c r="K124">
+        <v>30</v>
+      </c>
+      <c r="L124">
+        <v>17</v>
+      </c>
+      <c r="M124">
+        <v>-2901.500000000048</v>
+      </c>
+      <c r="N124">
+        <v>-6016.000000000055</v>
+      </c>
+      <c r="O124">
+        <v>0.3651989185013519</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="A125">
+        <v>13</v>
+      </c>
+      <c r="B125">
+        <v>10</v>
+      </c>
+      <c r="C125">
+        <v>40</v>
+      </c>
+      <c r="D125">
+        <v>1.6</v>
+      </c>
+      <c r="E125">
+        <v>1.6</v>
+      </c>
+      <c r="F125">
+        <v>100</v>
+      </c>
+      <c r="G125">
+        <v>400</v>
+      </c>
+      <c r="H125">
+        <v>140</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>15</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>14</v>
+      </c>
+      <c r="M125">
+        <v>-2925.29999999994</v>
+      </c>
+      <c r="N125">
+        <v>-4517.599999999963</v>
+      </c>
+      <c r="O125">
+        <v>0.2798041615667075</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>20</v>
+      </c>
+      <c r="C126">
+        <v>40</v>
+      </c>
+      <c r="D126">
+        <v>1.6</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>300</v>
+      </c>
+      <c r="G126">
+        <v>100</v>
+      </c>
+      <c r="H126">
+        <v>200</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>8</v>
+      </c>
+      <c r="K126">
+        <v>30</v>
+      </c>
+      <c r="L126">
+        <v>16</v>
+      </c>
+      <c r="M126">
+        <v>-2958.099999999979</v>
+      </c>
+      <c r="N126">
+        <v>-4123.49999999996</v>
+      </c>
+      <c r="O126">
+        <v>0.3470846191326945</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127">
+        <v>11</v>
+      </c>
+      <c r="B127">
+        <v>40</v>
+      </c>
+      <c r="C127">
+        <v>60</v>
+      </c>
+      <c r="D127">
+        <v>1.8</v>
+      </c>
+      <c r="E127">
+        <v>1.4</v>
+      </c>
+      <c r="F127">
+        <v>400</v>
+      </c>
+      <c r="G127">
+        <v>200</v>
+      </c>
+      <c r="H127">
+        <v>200</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>16</v>
+      </c>
+      <c r="K127">
+        <v>30</v>
+      </c>
+      <c r="L127">
+        <v>11</v>
+      </c>
+      <c r="M127">
+        <v>-2958.999999999943</v>
+      </c>
+      <c r="N127">
+        <v>-4657.999999999959</v>
+      </c>
+      <c r="O127">
+        <v>0.346848179934892</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="A128">
+        <v>17</v>
+      </c>
+      <c r="B128">
+        <v>30</v>
+      </c>
+      <c r="C128">
+        <v>40</v>
+      </c>
+      <c r="D128">
+        <v>3.4</v>
+      </c>
+      <c r="E128">
+        <v>2.6</v>
+      </c>
+      <c r="F128">
+        <v>400</v>
+      </c>
+      <c r="G128">
+        <v>200</v>
+      </c>
+      <c r="H128">
+        <v>20</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>16</v>
+      </c>
+      <c r="K128">
+        <v>30</v>
+      </c>
+      <c r="L128">
+        <v>13</v>
+      </c>
+      <c r="M128">
+        <v>-3012.399999999989</v>
+      </c>
+      <c r="N128">
+        <v>-4337.599999999999</v>
+      </c>
+      <c r="O128">
+        <v>0.3464295195115477</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
+      <c r="A129">
+        <v>107</v>
+      </c>
+      <c r="B129">
+        <v>30</v>
+      </c>
+      <c r="C129">
+        <v>60</v>
+      </c>
+      <c r="D129">
+        <v>2.6</v>
+      </c>
+      <c r="E129">
+        <v>1.4</v>
+      </c>
+      <c r="F129">
+        <v>50</v>
+      </c>
+      <c r="G129">
+        <v>400</v>
+      </c>
+      <c r="H129">
+        <v>40</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>17</v>
+      </c>
+      <c r="K129">
+        <v>30</v>
+      </c>
+      <c r="L129">
+        <v>18</v>
+      </c>
+      <c r="M129">
+        <v>-3073.100000000036</v>
+      </c>
+      <c r="N129">
+        <v>-5376.300000000022</v>
+      </c>
+      <c r="O129">
+        <v>0.3097907949790795</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
+      <c r="A130">
+        <v>80</v>
+      </c>
+      <c r="B130">
+        <v>40</v>
+      </c>
+      <c r="C130">
+        <v>60</v>
+      </c>
+      <c r="D130">
+        <v>1.4</v>
+      </c>
+      <c r="E130">
+        <v>1.8</v>
+      </c>
+      <c r="F130">
+        <v>200</v>
+      </c>
+      <c r="G130">
+        <v>400</v>
+      </c>
+      <c r="H130">
+        <v>200</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>16</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>8</v>
+      </c>
+      <c r="M130">
+        <v>-3120.599999999974</v>
+      </c>
+      <c r="N130">
+        <v>-4539.599999999987</v>
+      </c>
+      <c r="O130">
+        <v>0.3438003220611916</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
+      <c r="A131">
+        <v>119</v>
+      </c>
+      <c r="B131">
+        <v>10</v>
+      </c>
+      <c r="C131">
+        <v>100</v>
+      </c>
+      <c r="D131">
+        <v>3</v>
+      </c>
+      <c r="E131">
+        <v>3</v>
+      </c>
+      <c r="F131">
+        <v>300</v>
+      </c>
+      <c r="G131">
+        <v>350</v>
+      </c>
+      <c r="H131">
+        <v>200</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>15</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>9</v>
+      </c>
+      <c r="M131">
+        <v>-3233.699999999938</v>
+      </c>
+      <c r="N131">
+        <v>-5269.199999999938</v>
+      </c>
+      <c r="O131">
+        <v>0.3438291711907347</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
+      <c r="A132">
+        <v>115</v>
+      </c>
+      <c r="B132">
+        <v>20</v>
+      </c>
+      <c r="C132">
+        <v>60</v>
+      </c>
+      <c r="D132">
+        <v>2.4</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>50</v>
+      </c>
+      <c r="G132">
+        <v>400</v>
+      </c>
+      <c r="H132">
+        <v>40</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>12</v>
+      </c>
+      <c r="K132">
+        <v>30</v>
+      </c>
+      <c r="L132">
+        <v>10</v>
+      </c>
+      <c r="M132">
+        <v>-3283.399999999973</v>
+      </c>
+      <c r="N132">
+        <v>-3817.099999999978</v>
+      </c>
+      <c r="O132">
+        <v>0.3392857142857143</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
+      <c r="A133">
+        <v>36</v>
+      </c>
+      <c r="B133">
+        <v>40</v>
+      </c>
+      <c r="C133">
+        <v>80</v>
+      </c>
+      <c r="D133">
+        <v>1.4</v>
+      </c>
+      <c r="E133">
+        <v>3.4</v>
+      </c>
+      <c r="F133">
+        <v>50</v>
+      </c>
+      <c r="G133">
+        <v>150</v>
+      </c>
+      <c r="H133">
+        <v>140</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>15</v>
+      </c>
+      <c r="K133">
+        <v>30</v>
+      </c>
+      <c r="L133">
+        <v>10</v>
+      </c>
+      <c r="M133">
+        <v>-3347.999999999983</v>
+      </c>
+      <c r="N133">
+        <v>-5410.299999999975</v>
+      </c>
+      <c r="O133">
+        <v>0.3385044989140552</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
+      <c r="A134">
+        <v>34</v>
+      </c>
+      <c r="B134">
+        <v>30</v>
+      </c>
+      <c r="C134">
+        <v>40</v>
+      </c>
+      <c r="D134">
+        <v>1.6</v>
+      </c>
+      <c r="E134">
+        <v>2.6</v>
+      </c>
+      <c r="F134">
+        <v>400</v>
+      </c>
+      <c r="G134">
+        <v>400</v>
+      </c>
+      <c r="H134">
+        <v>160</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>14</v>
+      </c>
+      <c r="K134">
+        <v>30</v>
+      </c>
+      <c r="L134">
+        <v>13</v>
+      </c>
+      <c r="M134">
+        <v>-3362.999999999948</v>
+      </c>
+      <c r="N134">
+        <v>-4572.79999999996</v>
+      </c>
+      <c r="O134">
+        <v>0.3443624331891066</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
+      <c r="A135">
+        <v>82</v>
+      </c>
+      <c r="B135">
+        <v>20</v>
+      </c>
+      <c r="C135">
+        <v>100</v>
+      </c>
+      <c r="D135">
+        <v>1.4</v>
+      </c>
+      <c r="E135">
+        <v>1.8</v>
+      </c>
+      <c r="F135">
+        <v>50</v>
+      </c>
+      <c r="G135">
+        <v>300</v>
+      </c>
+      <c r="H135">
+        <v>40</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>15</v>
+      </c>
+      <c r="K135">
+        <v>30</v>
+      </c>
+      <c r="L135">
+        <v>18</v>
+      </c>
+      <c r="M135">
+        <v>-3439.200000000033</v>
+      </c>
+      <c r="N135">
+        <v>-5236.900000000033</v>
+      </c>
+      <c r="O135">
+        <v>0.347984679919752</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
+      <c r="A136">
+        <v>72</v>
+      </c>
+      <c r="B136">
+        <v>40</v>
+      </c>
+      <c r="C136">
+        <v>60</v>
+      </c>
+      <c r="D136">
+        <v>1.2</v>
+      </c>
+      <c r="E136">
+        <v>2</v>
+      </c>
+      <c r="F136">
+        <v>200</v>
+      </c>
+      <c r="G136">
+        <v>200</v>
+      </c>
+      <c r="H136">
+        <v>60</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>8</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>19</v>
+      </c>
+      <c r="M136">
+        <v>-3544.69999999993</v>
+      </c>
+      <c r="N136">
+        <v>-5361.199999999912</v>
+      </c>
+      <c r="O136">
+        <v>0.3477047579182364</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
+      <c r="A137">
+        <v>96</v>
+      </c>
+      <c r="B137">
+        <v>40</v>
+      </c>
+      <c r="C137">
+        <v>100</v>
+      </c>
+      <c r="D137">
+        <v>1.4</v>
+      </c>
+      <c r="E137">
+        <v>2.6</v>
+      </c>
+      <c r="F137">
+        <v>400</v>
+      </c>
+      <c r="G137">
+        <v>150</v>
+      </c>
+      <c r="H137">
+        <v>60</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>14</v>
+      </c>
+      <c r="K137">
+        <v>30</v>
+      </c>
+      <c r="L137">
+        <v>13</v>
+      </c>
+      <c r="M137">
+        <v>-3738.399999999914</v>
+      </c>
+      <c r="N137">
+        <v>-5638.999999999942</v>
+      </c>
+      <c r="O137">
+        <v>0.2850562947799386</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="A138">
+        <v>29</v>
+      </c>
+      <c r="B138">
+        <v>30</v>
+      </c>
+      <c r="C138">
+        <v>40</v>
+      </c>
+      <c r="D138">
+        <v>2.4</v>
+      </c>
+      <c r="E138">
+        <v>2.8</v>
+      </c>
+      <c r="F138">
+        <v>400</v>
+      </c>
+      <c r="G138">
+        <v>300</v>
+      </c>
+      <c r="H138">
+        <v>100</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>15</v>
+      </c>
+      <c r="K138">
+        <v>30</v>
+      </c>
+      <c r="L138">
+        <v>8</v>
+      </c>
+      <c r="M138">
+        <v>-3850.599999999911</v>
+      </c>
+      <c r="N138">
+        <v>-4588.199999999939</v>
+      </c>
+      <c r="O138">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
+      <c r="A139">
+        <v>60</v>
+      </c>
+      <c r="B139">
+        <v>30</v>
+      </c>
+      <c r="C139">
+        <v>40</v>
+      </c>
+      <c r="D139">
+        <v>2.4</v>
+      </c>
+      <c r="E139">
+        <v>3.8</v>
+      </c>
+      <c r="F139">
+        <v>350</v>
+      </c>
+      <c r="G139">
+        <v>350</v>
+      </c>
+      <c r="H139">
+        <v>40</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>15</v>
+      </c>
+      <c r="K139">
+        <v>30</v>
+      </c>
+      <c r="L139">
+        <v>19</v>
+      </c>
+      <c r="M139">
+        <v>-4108.199999999991</v>
+      </c>
+      <c r="N139">
+        <v>-5718.599999999981</v>
+      </c>
+      <c r="O139">
+        <v>0.3511125654450262</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
+      <c r="A140">
+        <v>20</v>
+      </c>
+      <c r="B140">
+        <v>50</v>
+      </c>
+      <c r="C140">
+        <v>40</v>
+      </c>
+      <c r="D140">
+        <v>2.4</v>
+      </c>
+      <c r="E140">
+        <v>3.4</v>
+      </c>
+      <c r="F140">
+        <v>250</v>
+      </c>
+      <c r="G140">
+        <v>350</v>
+      </c>
+      <c r="H140">
+        <v>100</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>11</v>
+      </c>
+      <c r="K140">
+        <v>30</v>
+      </c>
+      <c r="L140">
+        <v>15</v>
+      </c>
+      <c r="M140">
         <v>-4140.799999999896</v>
       </c>
-      <c r="N25">
+      <c r="N140">
         <v>-5260.799999999907</v>
       </c>
-      <c r="O25">
+      <c r="O140">
         <v>0.263000852514919</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
+      <c r="A141">
+        <v>130</v>
+      </c>
+      <c r="B141">
+        <v>10</v>
+      </c>
+      <c r="C141">
+        <v>80</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141">
+        <v>3.2</v>
+      </c>
+      <c r="F141">
+        <v>250</v>
+      </c>
+      <c r="G141">
+        <v>250</v>
+      </c>
+      <c r="H141">
+        <v>40</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>17</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>10</v>
+      </c>
+      <c r="M141">
+        <v>-4239.999999999969</v>
+      </c>
+      <c r="N141">
+        <v>-6457.099999999982</v>
+      </c>
+      <c r="O141">
+        <v>0.2976653696498054</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
+      <c r="A142">
+        <v>145</v>
+      </c>
+      <c r="B142">
+        <v>20</v>
+      </c>
+      <c r="C142">
+        <v>100</v>
+      </c>
+      <c r="D142">
+        <v>3.4</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>100</v>
+      </c>
+      <c r="G142">
+        <v>300</v>
+      </c>
+      <c r="H142">
+        <v>180</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>10</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>15</v>
+      </c>
+      <c r="M142">
+        <v>-4276.299999999904</v>
+      </c>
+      <c r="N142">
+        <v>-5515.099999999907</v>
+      </c>
+      <c r="O142">
+        <v>0.2605140186915888</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
+      <c r="A143">
+        <v>69</v>
+      </c>
+      <c r="B143">
+        <v>30</v>
+      </c>
+      <c r="C143">
+        <v>80</v>
+      </c>
+      <c r="D143">
+        <v>2.2</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>50</v>
+      </c>
+      <c r="G143">
+        <v>250</v>
+      </c>
+      <c r="H143">
+        <v>160</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>13</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>11</v>
+      </c>
+      <c r="M143">
+        <v>-4471.099999999976</v>
+      </c>
+      <c r="N143">
+        <v>-6261.999999999965</v>
+      </c>
+      <c r="O143">
+        <v>0.3341478313989004</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
+      <c r="A144">
+        <v>120</v>
+      </c>
+      <c r="B144">
+        <v>50</v>
+      </c>
+      <c r="C144">
+        <v>60</v>
+      </c>
+      <c r="D144">
+        <v>2.4</v>
+      </c>
+      <c r="E144">
+        <v>3.4</v>
+      </c>
+      <c r="F144">
+        <v>150</v>
+      </c>
+      <c r="G144">
+        <v>150</v>
+      </c>
+      <c r="H144">
+        <v>80</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>13</v>
+      </c>
+      <c r="K144">
+        <v>30</v>
+      </c>
+      <c r="L144">
+        <v>13</v>
+      </c>
+      <c r="M144">
+        <v>-4528.899999999905</v>
+      </c>
+      <c r="N144">
+        <v>-6095.49999999992</v>
+      </c>
+      <c r="O144">
+        <v>0.2754869719200607</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
+      <c r="A145">
+        <v>135</v>
+      </c>
+      <c r="B145">
+        <v>30</v>
+      </c>
+      <c r="C145">
+        <v>60</v>
+      </c>
+      <c r="D145">
+        <v>2.6</v>
+      </c>
+      <c r="E145">
+        <v>2.8</v>
+      </c>
+      <c r="F145">
+        <v>300</v>
+      </c>
+      <c r="G145">
+        <v>250</v>
+      </c>
+      <c r="H145">
+        <v>160</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>16</v>
+      </c>
+      <c r="K145">
+        <v>30</v>
+      </c>
+      <c r="L145">
+        <v>11</v>
+      </c>
+      <c r="M145">
+        <v>-4596.099999999937</v>
+      </c>
+      <c r="N145">
+        <v>-6827.399999999967</v>
+      </c>
+      <c r="O145">
+        <v>0.2928571428571429</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
+      <c r="A146">
+        <v>87</v>
+      </c>
+      <c r="B146">
+        <v>40</v>
+      </c>
+      <c r="C146">
+        <v>60</v>
+      </c>
+      <c r="D146">
+        <v>1.6</v>
+      </c>
+      <c r="E146">
+        <v>1.6</v>
+      </c>
+      <c r="F146">
+        <v>150</v>
+      </c>
+      <c r="G146">
+        <v>200</v>
+      </c>
+      <c r="H146">
+        <v>180</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>16</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>12</v>
+      </c>
+      <c r="M146">
+        <v>-4614.999999999983</v>
+      </c>
+      <c r="N146">
+        <v>-6194.000000000008</v>
+      </c>
+      <c r="O146">
+        <v>0.2878494326044838</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
+      <c r="A147">
+        <v>126</v>
+      </c>
+      <c r="B147">
+        <v>30</v>
+      </c>
+      <c r="C147">
+        <v>60</v>
+      </c>
+      <c r="D147">
+        <v>3.6</v>
+      </c>
+      <c r="E147">
+        <v>3.4</v>
+      </c>
+      <c r="F147">
+        <v>100</v>
+      </c>
+      <c r="G147">
+        <v>350</v>
+      </c>
+      <c r="H147">
+        <v>20</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>15</v>
+      </c>
+      <c r="K147">
+        <v>30</v>
+      </c>
+      <c r="L147">
+        <v>11</v>
+      </c>
+      <c r="M147">
+        <v>-4643.2999999999</v>
+      </c>
+      <c r="N147">
+        <v>-6131.399999999922</v>
+      </c>
+      <c r="O147">
+        <v>0.2846398611512873</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
+      <c r="A148">
+        <v>75</v>
+      </c>
+      <c r="B148">
+        <v>40</v>
+      </c>
+      <c r="C148">
+        <v>80</v>
+      </c>
+      <c r="D148">
+        <v>2.6</v>
+      </c>
+      <c r="E148">
+        <v>1.2</v>
+      </c>
+      <c r="F148">
+        <v>300</v>
+      </c>
+      <c r="G148">
+        <v>400</v>
+      </c>
+      <c r="H148">
+        <v>120</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>14</v>
+      </c>
+      <c r="K148">
+        <v>30</v>
+      </c>
+      <c r="L148">
+        <v>13</v>
+      </c>
+      <c r="M148">
+        <v>-4709.299999999905</v>
+      </c>
+      <c r="N148">
+        <v>-6756.999999999935</v>
+      </c>
+      <c r="O148">
+        <v>0.2812180143295803</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
+      <c r="A149">
+        <v>51</v>
+      </c>
+      <c r="B149">
+        <v>30</v>
+      </c>
+      <c r="C149">
+        <v>100</v>
+      </c>
+      <c r="D149">
+        <v>2.4</v>
+      </c>
+      <c r="E149">
+        <v>1.6</v>
+      </c>
+      <c r="F149">
+        <v>400</v>
+      </c>
+      <c r="G149">
+        <v>300</v>
+      </c>
+      <c r="H149">
+        <v>200</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>9</v>
+      </c>
+      <c r="K149">
+        <v>30</v>
+      </c>
+      <c r="L149">
+        <v>17</v>
+      </c>
+      <c r="M149">
+        <v>-4768.599999999883</v>
+      </c>
+      <c r="N149">
+        <v>-6092.099999999874</v>
+      </c>
+      <c r="O149">
+        <v>0.2628610493932661</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
+      <c r="A150">
+        <v>43</v>
+      </c>
+      <c r="B150">
+        <v>50</v>
+      </c>
+      <c r="C150">
+        <v>80</v>
+      </c>
+      <c r="D150">
+        <v>2</v>
+      </c>
+      <c r="E150">
+        <v>3.2</v>
+      </c>
+      <c r="F150">
+        <v>50</v>
+      </c>
+      <c r="G150">
+        <v>100</v>
+      </c>
+      <c r="H150">
+        <v>80</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>14</v>
+      </c>
+      <c r="K150">
+        <v>30</v>
+      </c>
+      <c r="L150">
+        <v>13</v>
+      </c>
+      <c r="M150">
+        <v>-4919.099999999924</v>
+      </c>
+      <c r="N150">
+        <v>-6100.299999999947</v>
+      </c>
+      <c r="O150">
+        <v>0.2752551020408163</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
+      <c r="A151">
+        <v>44</v>
+      </c>
+      <c r="B151">
+        <v>50</v>
+      </c>
+      <c r="C151">
+        <v>60</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <v>2.2</v>
+      </c>
+      <c r="F151">
+        <v>50</v>
+      </c>
+      <c r="G151">
+        <v>200</v>
+      </c>
+      <c r="H151">
+        <v>20</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>15</v>
+      </c>
+      <c r="K151">
+        <v>30</v>
+      </c>
+      <c r="L151">
+        <v>18</v>
+      </c>
+      <c r="M151">
+        <v>-5517.799999999963</v>
+      </c>
+      <c r="N151">
+        <v>-6326.099999999995</v>
+      </c>
+      <c r="O151">
+        <v>0.3559075186601129</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
+      <c r="A152">
+        <v>88</v>
+      </c>
+      <c r="B152">
+        <v>20</v>
+      </c>
+      <c r="C152">
+        <v>100</v>
+      </c>
+      <c r="D152">
+        <v>3.2</v>
+      </c>
+      <c r="E152">
+        <v>3.4</v>
+      </c>
+      <c r="F152">
+        <v>350</v>
+      </c>
+      <c r="G152">
+        <v>400</v>
+      </c>
+      <c r="H152">
+        <v>20</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>12</v>
+      </c>
+      <c r="K152">
+        <v>30</v>
+      </c>
+      <c r="L152">
+        <v>15</v>
+      </c>
+      <c r="M152">
+        <v>-5808.799999999887</v>
+      </c>
+      <c r="N152">
+        <v>-7617.999999999905</v>
+      </c>
+      <c r="O152">
+        <v>0.2673068334077713</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
+      <c r="A153">
+        <v>40</v>
+      </c>
+      <c r="B153">
+        <v>30</v>
+      </c>
+      <c r="C153">
+        <v>60</v>
+      </c>
+      <c r="D153">
+        <v>1.4</v>
+      </c>
+      <c r="E153">
+        <v>2.6</v>
+      </c>
+      <c r="F153">
+        <v>100</v>
+      </c>
+      <c r="G153">
+        <v>200</v>
+      </c>
+      <c r="H153">
+        <v>60</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>8</v>
+      </c>
+      <c r="K153">
+        <v>30</v>
+      </c>
+      <c r="L153">
+        <v>18</v>
+      </c>
+      <c r="M153">
+        <v>-5886.899999999882</v>
+      </c>
+      <c r="N153">
+        <v>-6867.39999999987</v>
+      </c>
+      <c r="O153">
+        <v>0.2635497319833234</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
+      <c r="A154">
+        <v>118</v>
+      </c>
+      <c r="B154">
+        <v>50</v>
+      </c>
+      <c r="C154">
+        <v>100</v>
+      </c>
+      <c r="D154">
+        <v>3.8</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>50</v>
+      </c>
+      <c r="G154">
+        <v>300</v>
+      </c>
+      <c r="H154">
+        <v>80</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <v>17</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>8</v>
+      </c>
+      <c r="M154">
+        <v>-6958.799999999981</v>
+      </c>
+      <c r="N154">
+        <v>-8371.19999999999</v>
+      </c>
+      <c r="O154">
+        <v>0.2805587892898719</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
+      <c r="A155">
+        <v>33</v>
+      </c>
+      <c r="B155">
+        <v>40</v>
+      </c>
+      <c r="C155">
+        <v>60</v>
+      </c>
+      <c r="D155">
+        <v>1.6</v>
+      </c>
+      <c r="E155">
+        <v>2.8</v>
+      </c>
+      <c r="F155">
+        <v>50</v>
+      </c>
+      <c r="G155">
+        <v>250</v>
+      </c>
+      <c r="H155">
+        <v>180</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>8</v>
+      </c>
+      <c r="K155">
+        <v>30</v>
+      </c>
+      <c r="L155">
+        <v>19</v>
+      </c>
+      <c r="M155">
+        <v>-10431.99999999991</v>
+      </c>
+      <c r="N155">
+        <v>-11894.89999999991</v>
+      </c>
+      <c r="O155">
+        <v>0.251260625270134</v>
       </c>
     </row>
   </sheetData>
